--- a/projecttracker.xlsx
+++ b/projecttracker.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="65">
   <si>
-    <t xml:space="preserve">Project management template</t>
+    <t xml:space="preserve">Project tracker</t>
   </si>
   <si>
     <t xml:space="preserve">Q1</t>
@@ -927,6 +927,19 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FFBFBFBF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFBFBFBF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA6A6A6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="medium">
         <color rgb="FFBFBFBF"/>
       </left>
@@ -975,19 +988,6 @@
       </left>
       <right style="hair">
         <color rgb="FFA6A6A6"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFBFBFBF"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA6A6A6"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FFBFBFBF"/>
       </right>
       <top style="thin">
         <color rgb="FFBFBFBF"/>
@@ -1044,7 +1044,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1301,70 +1301,78 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="169" fontId="12" fillId="17" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="16" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="32" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="34" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="169" fontId="5" fillId="17" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="16" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="32" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="18" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="17" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="20" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="7" borderId="31" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1401,39 +1409,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="3" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="16" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="169" fontId="12" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="17" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="17" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1441,19 +1445,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="35" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="19" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="16" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="20" borderId="37" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="38" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1543,9 +1547,9 @@
   <dimension ref="A1:CO37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="9" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+      <selection pane="bottomLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2159,11 +2163,15 @@
       <c r="D7" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65" t="str">
+      <c r="E7" s="63" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F7" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G7" s="65" t="n">
         <f aca="false">IF(F7-E7=0,"",F7-E7)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H7" s="66" t="n">
         <v>1</v>
@@ -2239,16 +2247,20 @@
       <c r="D8" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="65" t="str">
+      <c r="E8" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F8" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G8" s="65" t="n">
         <f aca="false">IF(F8-E8=0,"",F8-E8)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H8" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="78"/>
+      <c r="I8" s="79"/>
       <c r="J8" s="69"/>
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
@@ -2316,19 +2328,23 @@
       <c r="C9" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="63"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="65" t="str">
+      <c r="E9" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F9" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G9" s="65" t="n">
         <f aca="false">IF(F9-E9=0,"",F9-E9)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H9" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="78"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="69"/>
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
@@ -2395,19 +2411,21 @@
       <c r="C10" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="65" t="str">
+      <c r="E10" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F10" s="81"/>
+      <c r="G10" s="65" t="n">
         <f aca="false">IF(F10-E10=0,"",F10-E10)</f>
-        <v/>
+        <v>-44774</v>
       </c>
       <c r="H10" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="78"/>
+      <c r="I10" s="79"/>
       <c r="J10" s="69"/>
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
@@ -2475,19 +2493,21 @@
       <c r="C11" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="63"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="65" t="str">
+      <c r="E11" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F11" s="81"/>
+      <c r="G11" s="65" t="n">
         <f aca="false">IF(F11-E11=0,"",F11-E11)</f>
-        <v/>
+        <v>-44774</v>
       </c>
       <c r="H11" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="78"/>
+      <c r="I11" s="79"/>
       <c r="J11" s="69"/>
       <c r="K11" s="69"/>
       <c r="L11" s="69"/>
@@ -2555,19 +2575,21 @@
       <c r="C12" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="79" t="s">
+      <c r="D12" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="63"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="65" t="str">
+      <c r="E12" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F12" s="81"/>
+      <c r="G12" s="65" t="n">
         <f aca="false">IF(F12-E12=0,"",F12-E12)</f>
-        <v/>
+        <v>-44774</v>
       </c>
       <c r="H12" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="78"/>
+      <c r="I12" s="79"/>
       <c r="J12" s="69"/>
       <c r="K12" s="69"/>
       <c r="L12" s="69"/>
@@ -2635,19 +2657,21 @@
       <c r="C13" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="79" t="s">
+      <c r="D13" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="63"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65" t="str">
+      <c r="E13" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F13" s="81"/>
+      <c r="G13" s="65" t="n">
         <f aca="false">IF(F13-E13=0,"",F13-E13)</f>
-        <v/>
+        <v>-44774</v>
       </c>
       <c r="H13" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="78"/>
+      <c r="I13" s="79"/>
       <c r="J13" s="69"/>
       <c r="K13" s="69"/>
       <c r="L13" s="69"/>
@@ -2712,13 +2736,13 @@
       <c r="B14" s="60" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="80" t="s">
+      <c r="C14" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="84" t="str">
+      <c r="D14" s="83"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86" t="str">
         <f aca="false">IF(F14-E14=0,"",F14-E14)</f>
         <v/>
       </c>
@@ -2793,19 +2817,21 @@
       <c r="C15" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="79" t="s">
+      <c r="D15" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="65" t="str">
+      <c r="E15" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F15" s="81"/>
+      <c r="G15" s="65" t="n">
         <f aca="false">IF(F15-E15=0,"",F15-E15)</f>
-        <v/>
+        <v>-44774</v>
       </c>
       <c r="H15" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="78"/>
+      <c r="I15" s="79"/>
       <c r="J15" s="69"/>
       <c r="K15" s="69"/>
       <c r="L15" s="69"/>
@@ -2821,7 +2847,7 @@
       <c r="V15" s="69"/>
       <c r="W15" s="70"/>
       <c r="X15" s="71"/>
-      <c r="Y15" s="85"/>
+      <c r="Y15" s="87"/>
       <c r="Z15" s="69"/>
       <c r="AA15" s="69"/>
       <c r="AB15" s="69"/>
@@ -2873,19 +2899,21 @@
       <c r="C16" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="79" t="s">
+      <c r="D16" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="63"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="65" t="str">
+      <c r="E16" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F16" s="81"/>
+      <c r="G16" s="65" t="n">
         <f aca="false">IF(F16-E16=0,"",F16-E16)</f>
-        <v/>
+        <v>-44774</v>
       </c>
       <c r="H16" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="78"/>
+      <c r="I16" s="79"/>
       <c r="J16" s="69"/>
       <c r="K16" s="69"/>
       <c r="L16" s="69"/>
@@ -2953,19 +2981,21 @@
       <c r="C17" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="79" t="s">
+      <c r="D17" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="63"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="65" t="str">
+      <c r="E17" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F17" s="81"/>
+      <c r="G17" s="65" t="n">
         <f aca="false">IF(F17-E17=0,"",F17-E17)</f>
-        <v/>
+        <v>-44774</v>
       </c>
       <c r="H17" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="78"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="69"/>
       <c r="K17" s="69"/>
       <c r="L17" s="69"/>
@@ -3033,19 +3063,23 @@
       <c r="C18" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="79" t="s">
+      <c r="D18" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="63"/>
-      <c r="F18" s="64"/>
-      <c r="G18" s="65" t="str">
+      <c r="E18" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F18" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G18" s="65" t="n">
         <f aca="false">IF(F18-E18=0,"",F18-E18)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H18" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="78"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="69"/>
       <c r="K18" s="69"/>
       <c r="L18" s="69"/>
@@ -3110,13 +3144,13 @@
       <c r="B19" s="60" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="84" t="str">
+      <c r="D19" s="88"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86" t="str">
         <f aca="false">IF(F19-E19=0,"",F19-E19)</f>
         <v/>
       </c>
@@ -3191,19 +3225,23 @@
       <c r="C20" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="79" t="s">
+      <c r="D20" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="64"/>
-      <c r="G20" s="65" t="str">
+      <c r="E20" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F20" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G20" s="65" t="n">
         <f aca="false">IF(F20-E20=0,"",F20-E20)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H20" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="78"/>
+      <c r="I20" s="79"/>
       <c r="J20" s="69"/>
       <c r="K20" s="69"/>
       <c r="L20" s="69"/>
@@ -3218,11 +3256,11 @@
       <c r="U20" s="69"/>
       <c r="V20" s="69"/>
       <c r="W20" s="70"/>
-      <c r="X20" s="87"/>
-      <c r="Y20" s="87"/>
-      <c r="Z20" s="87"/>
-      <c r="AA20" s="87"/>
-      <c r="AB20" s="87"/>
+      <c r="X20" s="89"/>
+      <c r="Y20" s="89"/>
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="89"/>
+      <c r="AB20" s="89"/>
       <c r="AC20" s="72"/>
       <c r="AD20" s="72"/>
       <c r="AE20" s="72"/>
@@ -3270,19 +3308,23 @@
       <c r="C21" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="79" t="s">
+      <c r="D21" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="63"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="65" t="str">
+      <c r="E21" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F21" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G21" s="65" t="n">
         <f aca="false">IF(F21-E21=0,"",F21-E21)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H21" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="78"/>
+      <c r="I21" s="79"/>
       <c r="J21" s="69"/>
       <c r="K21" s="69"/>
       <c r="L21" s="69"/>
@@ -3302,11 +3344,11 @@
       <c r="Z21" s="69"/>
       <c r="AA21" s="69"/>
       <c r="AB21" s="69"/>
-      <c r="AC21" s="87"/>
-      <c r="AD21" s="87"/>
-      <c r="AE21" s="87"/>
-      <c r="AF21" s="87"/>
-      <c r="AG21" s="87"/>
+      <c r="AC21" s="89"/>
+      <c r="AD21" s="89"/>
+      <c r="AE21" s="89"/>
+      <c r="AF21" s="89"/>
+      <c r="AG21" s="89"/>
       <c r="AH21" s="69"/>
       <c r="AI21" s="69"/>
       <c r="AJ21" s="69"/>
@@ -3353,16 +3395,20 @@
       <c r="D22" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="63"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="65" t="str">
+      <c r="E22" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F22" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G22" s="65" t="n">
         <f aca="false">IF(F22-E22=0,"",F22-E22)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H22" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="78"/>
+      <c r="I22" s="79"/>
       <c r="J22" s="69"/>
       <c r="K22" s="69"/>
       <c r="L22" s="69"/>
@@ -3387,11 +3433,11 @@
       <c r="AE22" s="72"/>
       <c r="AF22" s="72"/>
       <c r="AG22" s="72"/>
-      <c r="AH22" s="87"/>
-      <c r="AI22" s="87"/>
-      <c r="AJ22" s="87"/>
-      <c r="AK22" s="87"/>
-      <c r="AL22" s="87"/>
+      <c r="AH22" s="89"/>
+      <c r="AI22" s="89"/>
+      <c r="AJ22" s="89"/>
+      <c r="AK22" s="89"/>
+      <c r="AL22" s="89"/>
       <c r="AM22" s="71"/>
       <c r="AN22" s="69"/>
       <c r="AO22" s="69"/>
@@ -3433,16 +3479,20 @@
       <c r="D23" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="64"/>
-      <c r="G23" s="65" t="str">
+      <c r="E23" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F23" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G23" s="65" t="n">
         <f aca="false">IF(F23-E23=0,"",F23-E23)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H23" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="78"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="69"/>
       <c r="K23" s="69"/>
       <c r="L23" s="69"/>
@@ -3474,11 +3524,11 @@
       <c r="AJ23" s="69"/>
       <c r="AK23" s="69"/>
       <c r="AL23" s="70"/>
-      <c r="AM23" s="88"/>
-      <c r="AN23" s="88"/>
-      <c r="AO23" s="88"/>
-      <c r="AP23" s="88"/>
-      <c r="AQ23" s="88"/>
+      <c r="AM23" s="90"/>
+      <c r="AN23" s="90"/>
+      <c r="AO23" s="90"/>
+      <c r="AP23" s="90"/>
+      <c r="AQ23" s="90"/>
       <c r="AR23" s="73"/>
       <c r="AS23" s="73"/>
       <c r="AT23" s="73"/>
@@ -3512,19 +3562,23 @@
       <c r="C24" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="79" t="s">
+      <c r="D24" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="63"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65" t="str">
+      <c r="E24" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F24" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G24" s="65" t="n">
         <f aca="false">IF(F24-E24=0,"",F24-E24)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H24" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="78"/>
+      <c r="I24" s="79"/>
       <c r="J24" s="69"/>
       <c r="K24" s="69"/>
       <c r="L24" s="69"/>
@@ -3559,11 +3613,11 @@
       <c r="AO24" s="69"/>
       <c r="AP24" s="69"/>
       <c r="AQ24" s="69"/>
-      <c r="AR24" s="88"/>
-      <c r="AS24" s="88"/>
-      <c r="AT24" s="88"/>
-      <c r="AU24" s="88"/>
-      <c r="AV24" s="88"/>
+      <c r="AR24" s="90"/>
+      <c r="AS24" s="90"/>
+      <c r="AT24" s="90"/>
+      <c r="AU24" s="90"/>
+      <c r="AV24" s="90"/>
       <c r="AW24" s="69"/>
       <c r="AX24" s="69"/>
       <c r="AY24" s="69"/>
@@ -3595,16 +3649,20 @@
       <c r="D25" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="63"/>
-      <c r="F25" s="64"/>
-      <c r="G25" s="65" t="str">
+      <c r="E25" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F25" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G25" s="65" t="n">
         <f aca="false">IF(F25-E25=0,"",F25-E25)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H25" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="78"/>
+      <c r="I25" s="79"/>
       <c r="J25" s="69"/>
       <c r="K25" s="69"/>
       <c r="L25" s="69"/>
@@ -3644,11 +3702,11 @@
       <c r="AT25" s="73"/>
       <c r="AU25" s="73"/>
       <c r="AV25" s="73"/>
-      <c r="AW25" s="88"/>
-      <c r="AX25" s="88"/>
-      <c r="AY25" s="88"/>
-      <c r="AZ25" s="88"/>
-      <c r="BA25" s="88"/>
+      <c r="AW25" s="90"/>
+      <c r="AX25" s="90"/>
+      <c r="AY25" s="90"/>
+      <c r="AZ25" s="90"/>
+      <c r="BA25" s="90"/>
       <c r="BB25" s="71"/>
       <c r="BC25" s="69"/>
       <c r="BD25" s="69"/>
@@ -3669,13 +3727,13 @@
       <c r="B26" s="60" t="n">
         <v>4</v>
       </c>
-      <c r="C26" s="80" t="s">
+      <c r="C26" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="81"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="84" t="str">
+      <c r="D26" s="83"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="85"/>
+      <c r="G26" s="86" t="str">
         <f aca="false">IF(F26-E26=0,"",F26-E26)</f>
         <v/>
       </c>
@@ -3750,19 +3808,23 @@
       <c r="C27" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="63"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65" t="str">
+      <c r="E27" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F27" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G27" s="65" t="n">
         <f aca="false">IF(F27-E27=0,"",F27-E27)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H27" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="78"/>
+      <c r="I27" s="79"/>
       <c r="J27" s="69"/>
       <c r="K27" s="69"/>
       <c r="L27" s="69"/>
@@ -3807,11 +3869,11 @@
       <c r="AY27" s="69"/>
       <c r="AZ27" s="69"/>
       <c r="BA27" s="70"/>
-      <c r="BB27" s="88"/>
-      <c r="BC27" s="88"/>
-      <c r="BD27" s="88"/>
-      <c r="BE27" s="88"/>
-      <c r="BF27" s="88"/>
+      <c r="BB27" s="90"/>
+      <c r="BC27" s="90"/>
+      <c r="BD27" s="90"/>
+      <c r="BE27" s="90"/>
+      <c r="BF27" s="90"/>
       <c r="BG27" s="74"/>
       <c r="BH27" s="74"/>
       <c r="BI27" s="74"/>
@@ -3830,19 +3892,23 @@
       <c r="C28" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="79" t="s">
+      <c r="D28" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="65" t="str">
+      <c r="E28" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F28" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G28" s="65" t="n">
         <f aca="false">IF(F28-E28=0,"",F28-E28)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H28" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="78"/>
+      <c r="I28" s="79"/>
       <c r="J28" s="69"/>
       <c r="K28" s="69"/>
       <c r="L28" s="69"/>
@@ -3892,11 +3958,11 @@
       <c r="BD28" s="69"/>
       <c r="BE28" s="69"/>
       <c r="BF28" s="69"/>
-      <c r="BG28" s="88"/>
-      <c r="BH28" s="88"/>
-      <c r="BI28" s="88"/>
-      <c r="BJ28" s="88"/>
-      <c r="BK28" s="88"/>
+      <c r="BG28" s="90"/>
+      <c r="BH28" s="90"/>
+      <c r="BI28" s="90"/>
+      <c r="BJ28" s="90"/>
+      <c r="BK28" s="90"/>
       <c r="BM28" s="69"/>
       <c r="BN28" s="69"/>
       <c r="BO28" s="69"/>
@@ -3906,22 +3972,26 @@
       <c r="B29" s="60" t="n">
         <v>4.3</v>
       </c>
-      <c r="C29" s="89" t="s">
+      <c r="C29" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="79" t="s">
+      <c r="D29" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
-      <c r="G29" s="65" t="str">
+      <c r="E29" s="78" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F29" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G29" s="65" t="n">
         <f aca="false">IF(F29-E29=0,"",F29-E29)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H29" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="78"/>
+      <c r="I29" s="79"/>
       <c r="J29" s="69"/>
       <c r="K29" s="69"/>
       <c r="L29" s="69"/>
@@ -3976,98 +4046,102 @@
       <c r="BI29" s="74"/>
       <c r="BJ29" s="74"/>
       <c r="BK29" s="74"/>
-      <c r="BL29" s="88"/>
-      <c r="BM29" s="88"/>
+      <c r="BL29" s="90"/>
+      <c r="BM29" s="90"/>
       <c r="BN29" s="69"/>
       <c r="BO29" s="69"/>
       <c r="BP29" s="75"/>
     </row>
     <row r="30" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="90" t="s">
+      <c r="B30" s="92" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="91" t="s">
+      <c r="D30" s="93" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="92"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="94" t="str">
+      <c r="E30" s="94" t="n">
+        <v>44774</v>
+      </c>
+      <c r="F30" s="64" t="n">
+        <v>44800</v>
+      </c>
+      <c r="G30" s="95" t="n">
         <f aca="false">IF(F30-E30=0,"",F30-E30)</f>
-        <v/>
+        <v>26</v>
       </c>
       <c r="H30" s="66" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="95"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="96"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="97"/>
-      <c r="P30" s="97"/>
-      <c r="Q30" s="97"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="96"/>
-      <c r="T30" s="96"/>
-      <c r="U30" s="96"/>
-      <c r="V30" s="96"/>
-      <c r="W30" s="98"/>
-      <c r="X30" s="99"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="96"/>
-      <c r="AA30" s="96"/>
-      <c r="AB30" s="96"/>
-      <c r="AC30" s="100"/>
-      <c r="AD30" s="100"/>
-      <c r="AE30" s="100"/>
-      <c r="AF30" s="100"/>
-      <c r="AG30" s="100"/>
-      <c r="AH30" s="96"/>
-      <c r="AI30" s="96"/>
-      <c r="AJ30" s="96"/>
-      <c r="AK30" s="96"/>
-      <c r="AL30" s="98"/>
-      <c r="AM30" s="99"/>
-      <c r="AN30" s="96"/>
-      <c r="AO30" s="96"/>
-      <c r="AP30" s="96"/>
-      <c r="AQ30" s="96"/>
-      <c r="AR30" s="101"/>
-      <c r="AS30" s="101"/>
-      <c r="AT30" s="101"/>
-      <c r="AU30" s="101"/>
-      <c r="AV30" s="101"/>
-      <c r="AW30" s="96"/>
-      <c r="AX30" s="96"/>
-      <c r="AY30" s="96"/>
-      <c r="AZ30" s="96"/>
-      <c r="BA30" s="98"/>
-      <c r="BB30" s="99"/>
-      <c r="BC30" s="96"/>
-      <c r="BD30" s="96"/>
-      <c r="BE30" s="96"/>
-      <c r="BF30" s="96"/>
-      <c r="BG30" s="102"/>
-      <c r="BH30" s="102"/>
-      <c r="BI30" s="102"/>
-      <c r="BJ30" s="102"/>
-      <c r="BK30" s="102"/>
-      <c r="BL30" s="96"/>
-      <c r="BM30" s="96"/>
-      <c r="BN30" s="88"/>
-      <c r="BO30" s="88"/>
-      <c r="BP30" s="88"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="97"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="97"/>
+      <c r="T30" s="97"/>
+      <c r="U30" s="97"/>
+      <c r="V30" s="97"/>
+      <c r="W30" s="99"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="97"/>
+      <c r="Z30" s="97"/>
+      <c r="AA30" s="97"/>
+      <c r="AB30" s="97"/>
+      <c r="AC30" s="101"/>
+      <c r="AD30" s="101"/>
+      <c r="AE30" s="101"/>
+      <c r="AF30" s="101"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="97"/>
+      <c r="AI30" s="97"/>
+      <c r="AJ30" s="97"/>
+      <c r="AK30" s="97"/>
+      <c r="AL30" s="99"/>
+      <c r="AM30" s="100"/>
+      <c r="AN30" s="97"/>
+      <c r="AO30" s="97"/>
+      <c r="AP30" s="97"/>
+      <c r="AQ30" s="97"/>
+      <c r="AR30" s="102"/>
+      <c r="AS30" s="102"/>
+      <c r="AT30" s="102"/>
+      <c r="AU30" s="102"/>
+      <c r="AV30" s="102"/>
+      <c r="AW30" s="97"/>
+      <c r="AX30" s="97"/>
+      <c r="AY30" s="97"/>
+      <c r="AZ30" s="97"/>
+      <c r="BA30" s="99"/>
+      <c r="BB30" s="100"/>
+      <c r="BC30" s="97"/>
+      <c r="BD30" s="97"/>
+      <c r="BE30" s="97"/>
+      <c r="BF30" s="97"/>
+      <c r="BG30" s="103"/>
+      <c r="BH30" s="103"/>
+      <c r="BI30" s="103"/>
+      <c r="BJ30" s="103"/>
+      <c r="BK30" s="103"/>
+      <c r="BL30" s="97"/>
+      <c r="BM30" s="97"/>
+      <c r="BN30" s="90"/>
+      <c r="BO30" s="90"/>
+      <c r="BP30" s="90"/>
     </row>
     <row r="31" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="103"/>
+      <c r="C37" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4097,7 +4171,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{98F5555E-CDAC-41A7-9FF4-C4816C70D05A}</x14:id>
+          <x14:id>{D562D022-BDDE-48F6-BFC5-1EE6D0DEC3A1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4111,7 +4185,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C9C631D4-5540-44E0-9A54-83F54E9A187D}</x14:id>
+          <x14:id>{314B3773-D747-429F-B561-BAAF9B9CE11B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4125,7 +4199,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E24D4550-B0F6-4A58-B476-B9BEE67EAE90}</x14:id>
+          <x14:id>{7821A69D-6520-4027-8DA7-CE522419FB71}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4139,7 +4213,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5E2FA8C0-6670-4C21-96F9-F53E2D4DB37F}</x14:id>
+          <x14:id>{58724A3C-67CA-493F-9946-72401F68C34F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4153,7 +4227,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E0F960C3-10E9-4E6E-B5EB-A13534F4BC2E}</x14:id>
+          <x14:id>{DA75834A-4010-4223-B829-EC2D39D04AA0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4167,7 +4241,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{246C9851-7C29-4963-A669-8AF8FBEBEDF3}</x14:id>
+          <x14:id>{97526898-B0DE-495C-86C0-C620DCF0E3EB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4181,7 +4255,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4FEF11DC-EBB0-4571-ACA7-F3C5EB855992}</x14:id>
+          <x14:id>{2AC05B18-DD8D-4974-8785-2176A59519D0}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4195,7 +4269,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{9C292159-1B13-4271-9D23-D03052527AD6}</x14:id>
+          <x14:id>{51366290-CB6D-403F-96B1-D3206A5D3066}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4209,7 +4283,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C96CA822-6CFE-4DE0-BEE1-4249F891B3AE}</x14:id>
+          <x14:id>{DAB9F110-1530-4BA0-8437-FD714F24FA90}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4223,7 +4297,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{52D09095-3049-4100-AC95-143DD0AFA8DD}</x14:id>
+          <x14:id>{7115FDB0-3DFA-4417-AD66-387CC4EF7FA7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4237,7 +4311,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{6076FDD4-198D-4BC3-A0E4-A3F466387045}</x14:id>
+          <x14:id>{29BC6CDA-9088-45DA-BC90-177790239FCB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4251,7 +4325,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{318EEEBE-27E5-4EF4-83A0-CA749A6F2A97}</x14:id>
+          <x14:id>{E1C0C8A7-1EFF-452F-8EB0-20A0F5AEE0CC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4265,7 +4339,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{74C0AADA-F478-4A6C-8757-58F1763F7589}</x14:id>
+          <x14:id>{4AB6F291-F4E8-4E48-B279-59424496C3D2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4279,7 +4353,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8E23BB14-118D-4792-BC2E-86B160E9E868}</x14:id>
+          <x14:id>{E8EBD5ED-6258-467D-9985-7233C5AC8F40}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4293,7 +4367,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{8CD09C62-F86A-4A34-AFA8-7A927D347274}</x14:id>
+          <x14:id>{28CB9210-FD9D-4A00-B748-69F2E12B10C9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4307,7 +4381,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{827D7DD1-DA66-4077-8051-E6B49B001B59}</x14:id>
+          <x14:id>{36E8C07D-18F7-4E3C-9B4D-D7333AC1DBEB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4321,7 +4395,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{CF2DCBC1-90EC-44B7-9294-C6589FFF3C95}</x14:id>
+          <x14:id>{137D20A8-918D-4C92-8029-26BAAE1E58FC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4335,7 +4409,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7CD54C1A-DF24-4E55-924B-A878216E3C94}</x14:id>
+          <x14:id>{41BD4028-EC86-4D8E-81A4-E787CE6BD9B1}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4349,7 +4423,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{23C55E3E-256C-454B-82D9-97BF93EC9D63}</x14:id>
+          <x14:id>{90F330AA-EBB1-437A-B8E5-2CCE14C298FF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4363,7 +4437,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{929B3150-8654-4F73-B374-562FF039C3D5}</x14:id>
+          <x14:id>{413CD8B7-A74F-4838-8E7E-7BAC4D9BF0AD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4377,7 +4451,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D7709C28-4449-44A3-8847-30D33E8F5159}</x14:id>
+          <x14:id>{ED55D2A0-41B6-4C79-A23F-C17269B65485}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4391,7 +4465,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{19A6372D-BD3F-4B97-8BB9-805912A736AC}</x14:id>
+          <x14:id>{90FC18C6-B5B2-4240-9F36-BD3C88A04614}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4405,7 +4479,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{405875F6-A367-4F5D-9CAC-2382CEF8FC3B}</x14:id>
+          <x14:id>{F4B064B5-9967-43C5-A025-12B850FF9689}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4419,7 +4493,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D06FCDCE-7B66-46D0-8E93-18EBA6D593F1}</x14:id>
+          <x14:id>{97F1EAE8-A878-4B4C-B4F4-62DE57327E3E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4435,7 +4509,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{98F5555E-CDAC-41A7-9FF4-C4816C70D05A}">
+          <x14:cfRule type="dataBar" id="{D562D022-BDDE-48F6-BFC5-1EE6D0DEC3A1}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4450,7 +4524,7 @@
           <xm:sqref>H6:H7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C9C631D4-5540-44E0-9A54-83F54E9A187D}">
+          <x14:cfRule type="dataBar" id="{314B3773-D747-429F-B561-BAAF9B9CE11B}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4465,7 +4539,7 @@
           <xm:sqref>H8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E24D4550-B0F6-4A58-B476-B9BEE67EAE90}">
+          <x14:cfRule type="dataBar" id="{7821A69D-6520-4027-8DA7-CE522419FB71}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4480,7 +4554,7 @@
           <xm:sqref>H9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5E2FA8C0-6670-4C21-96F9-F53E2D4DB37F}">
+          <x14:cfRule type="dataBar" id="{58724A3C-67CA-493F-9946-72401F68C34F}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4495,7 +4569,7 @@
           <xm:sqref>H10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E0F960C3-10E9-4E6E-B5EB-A13534F4BC2E}">
+          <x14:cfRule type="dataBar" id="{DA75834A-4010-4223-B829-EC2D39D04AA0}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4510,7 +4584,7 @@
           <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{246C9851-7C29-4963-A669-8AF8FBEBEDF3}">
+          <x14:cfRule type="dataBar" id="{97526898-B0DE-495C-86C0-C620DCF0E3EB}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4525,7 +4599,7 @@
           <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4FEF11DC-EBB0-4571-ACA7-F3C5EB855992}">
+          <x14:cfRule type="dataBar" id="{2AC05B18-DD8D-4974-8785-2176A59519D0}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4540,7 +4614,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{9C292159-1B13-4271-9D23-D03052527AD6}">
+          <x14:cfRule type="dataBar" id="{51366290-CB6D-403F-96B1-D3206A5D3066}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4555,7 +4629,7 @@
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C96CA822-6CFE-4DE0-BEE1-4249F891B3AE}">
+          <x14:cfRule type="dataBar" id="{DAB9F110-1530-4BA0-8437-FD714F24FA90}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4570,7 +4644,7 @@
           <xm:sqref>H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{52D09095-3049-4100-AC95-143DD0AFA8DD}">
+          <x14:cfRule type="dataBar" id="{7115FDB0-3DFA-4417-AD66-387CC4EF7FA7}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4585,7 +4659,7 @@
           <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{6076FDD4-198D-4BC3-A0E4-A3F466387045}">
+          <x14:cfRule type="dataBar" id="{29BC6CDA-9088-45DA-BC90-177790239FCB}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4600,7 +4674,7 @@
           <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{318EEEBE-27E5-4EF4-83A0-CA749A6F2A97}">
+          <x14:cfRule type="dataBar" id="{E1C0C8A7-1EFF-452F-8EB0-20A0F5AEE0CC}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4615,7 +4689,7 @@
           <xm:sqref>H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{74C0AADA-F478-4A6C-8757-58F1763F7589}">
+          <x14:cfRule type="dataBar" id="{4AB6F291-F4E8-4E48-B279-59424496C3D2}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4630,7 +4704,7 @@
           <xm:sqref>H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8E23BB14-118D-4792-BC2E-86B160E9E868}">
+          <x14:cfRule type="dataBar" id="{E8EBD5ED-6258-467D-9985-7233C5AC8F40}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4645,7 +4719,7 @@
           <xm:sqref>H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{8CD09C62-F86A-4A34-AFA8-7A927D347274}">
+          <x14:cfRule type="dataBar" id="{28CB9210-FD9D-4A00-B748-69F2E12B10C9}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4660,7 +4734,7 @@
           <xm:sqref>H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{827D7DD1-DA66-4077-8051-E6B49B001B59}">
+          <x14:cfRule type="dataBar" id="{36E8C07D-18F7-4E3C-9B4D-D7333AC1DBEB}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4675,7 +4749,7 @@
           <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{CF2DCBC1-90EC-44B7-9294-C6589FFF3C95}">
+          <x14:cfRule type="dataBar" id="{137D20A8-918D-4C92-8029-26BAAE1E58FC}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4690,7 +4764,7 @@
           <xm:sqref>H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7CD54C1A-DF24-4E55-924B-A878216E3C94}">
+          <x14:cfRule type="dataBar" id="{41BD4028-EC86-4D8E-81A4-E787CE6BD9B1}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4705,7 +4779,7 @@
           <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{23C55E3E-256C-454B-82D9-97BF93EC9D63}">
+          <x14:cfRule type="dataBar" id="{90F330AA-EBB1-437A-B8E5-2CCE14C298FF}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4720,7 +4794,7 @@
           <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{929B3150-8654-4F73-B374-562FF039C3D5}">
+          <x14:cfRule type="dataBar" id="{413CD8B7-A74F-4838-8E7E-7BAC4D9BF0AD}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4735,7 +4809,7 @@
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D7709C28-4449-44A3-8847-30D33E8F5159}">
+          <x14:cfRule type="dataBar" id="{ED55D2A0-41B6-4C79-A23F-C17269B65485}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4750,7 +4824,7 @@
           <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{19A6372D-BD3F-4B97-8BB9-805912A736AC}">
+          <x14:cfRule type="dataBar" id="{90FC18C6-B5B2-4240-9F36-BD3C88A04614}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4765,7 +4839,7 @@
           <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{405875F6-A367-4F5D-9CAC-2382CEF8FC3B}">
+          <x14:cfRule type="dataBar" id="{F4B064B5-9967-43C5-A025-12B850FF9689}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4780,7 +4854,7 @@
           <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D06FCDCE-7B66-46D0-8E93-18EBA6D593F1}">
+          <x14:cfRule type="dataBar" id="{97F1EAE8-A878-4B4C-B4F4-62DE57327E3E}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>

--- a/projecttracker.xlsx
+++ b/projecttracker.xlsx
@@ -1044,13 +1044,17 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1549,13 +1553,13 @@
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="9" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="5" style="0" width="9.84"/>
@@ -1569,100 +1573,100 @@
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
-    <row r="2" s="4" customFormat="true" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="5"/>
+    <row r="2" s="5" customFormat="true" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="6"/>
     </row>
-    <row r="3" s="4" customFormat="true" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="0"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="9" t="s">
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
+      <c r="T3" s="9"/>
+      <c r="U3" s="9"/>
+      <c r="V3" s="9"/>
+      <c r="W3" s="9"/>
+      <c r="X3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="Y3" s="9"/>
-      <c r="Z3" s="9"/>
-      <c r="AA3" s="9"/>
-      <c r="AB3" s="9"/>
-      <c r="AC3" s="9"/>
-      <c r="AD3" s="9"/>
-      <c r="AE3" s="9"/>
-      <c r="AF3" s="9"/>
-      <c r="AG3" s="9"/>
-      <c r="AH3" s="9"/>
-      <c r="AI3" s="9"/>
-      <c r="AJ3" s="9"/>
-      <c r="AK3" s="9"/>
-      <c r="AL3" s="9"/>
-      <c r="AM3" s="10" t="s">
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
+      <c r="AA3" s="10"/>
+      <c r="AB3" s="10"/>
+      <c r="AC3" s="10"/>
+      <c r="AD3" s="10"/>
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AK3" s="10"/>
+      <c r="AL3" s="10"/>
+      <c r="AM3" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="AN3" s="10"/>
-      <c r="AO3" s="10"/>
-      <c r="AP3" s="10"/>
-      <c r="AQ3" s="10"/>
-      <c r="AR3" s="10"/>
-      <c r="AS3" s="10"/>
-      <c r="AT3" s="10"/>
-      <c r="AU3" s="10"/>
-      <c r="AV3" s="10"/>
-      <c r="AW3" s="10"/>
-      <c r="AX3" s="10"/>
-      <c r="AY3" s="10"/>
-      <c r="AZ3" s="10"/>
-      <c r="BA3" s="10"/>
-      <c r="BB3" s="11" t="s">
+      <c r="AN3" s="11"/>
+      <c r="AO3" s="11"/>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11"/>
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11"/>
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="BC3" s="11"/>
-      <c r="BD3" s="11"/>
-      <c r="BE3" s="11"/>
-      <c r="BF3" s="11"/>
-      <c r="BG3" s="11"/>
-      <c r="BH3" s="11"/>
-      <c r="BI3" s="11"/>
-      <c r="BJ3" s="11"/>
-      <c r="BK3" s="11"/>
-      <c r="BL3" s="11"/>
-      <c r="BM3" s="11"/>
-      <c r="BN3" s="11"/>
-      <c r="BO3" s="11"/>
-      <c r="BP3" s="11"/>
+      <c r="BC3" s="12"/>
+      <c r="BD3" s="12"/>
+      <c r="BE3" s="12"/>
+      <c r="BF3" s="12"/>
+      <c r="BG3" s="12"/>
+      <c r="BH3" s="12"/>
+      <c r="BI3" s="12"/>
+      <c r="BJ3" s="12"/>
+      <c r="BK3" s="12"/>
+      <c r="BL3" s="12"/>
+      <c r="BM3" s="12"/>
+      <c r="BN3" s="12"/>
+      <c r="BO3" s="12"/>
+      <c r="BP3" s="12"/>
       <c r="BQ3" s="0"/>
       <c r="BR3" s="0"/>
       <c r="BS3" s="0"/>
@@ -1689,113 +1693,113 @@
       <c r="CN3" s="0"/>
       <c r="CO3" s="0"/>
     </row>
-    <row r="4" s="4" customFormat="true" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="5" customFormat="true" ht="35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19" t="s">
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="20" t="s">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="21" t="s">
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
-      <c r="AB4" s="21"/>
-      <c r="AC4" s="22" t="s">
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="22"/>
+      <c r="AA4" s="22"/>
+      <c r="AB4" s="22"/>
+      <c r="AC4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="AD4" s="22"/>
-      <c r="AE4" s="22"/>
-      <c r="AF4" s="22"/>
-      <c r="AG4" s="22"/>
-      <c r="AH4" s="23" t="s">
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="24" t="s">
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="25" t="s">
+      <c r="AN4" s="25"/>
+      <c r="AO4" s="25"/>
+      <c r="AP4" s="25"/>
+      <c r="AQ4" s="25"/>
+      <c r="AR4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="AS4" s="25"/>
-      <c r="AT4" s="25"/>
-      <c r="AU4" s="25"/>
-      <c r="AV4" s="25"/>
-      <c r="AW4" s="26" t="s">
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="AX4" s="26"/>
-      <c r="AY4" s="26"/>
-      <c r="AZ4" s="26"/>
-      <c r="BA4" s="26"/>
-      <c r="BB4" s="27" t="s">
+      <c r="AX4" s="27"/>
+      <c r="AY4" s="27"/>
+      <c r="AZ4" s="27"/>
+      <c r="BA4" s="27"/>
+      <c r="BB4" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="BC4" s="27"/>
-      <c r="BD4" s="27"/>
-      <c r="BE4" s="27"/>
-      <c r="BF4" s="27"/>
-      <c r="BG4" s="28" t="s">
+      <c r="BC4" s="28"/>
+      <c r="BD4" s="28"/>
+      <c r="BE4" s="28"/>
+      <c r="BF4" s="28"/>
+      <c r="BG4" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="BH4" s="28"/>
-      <c r="BI4" s="28"/>
-      <c r="BJ4" s="28"/>
-      <c r="BK4" s="28"/>
-      <c r="BL4" s="29" t="s">
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="29"/>
+      <c r="BK4" s="29"/>
+      <c r="BL4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="BM4" s="29"/>
-      <c r="BN4" s="29"/>
-      <c r="BO4" s="29"/>
-      <c r="BP4" s="29"/>
+      <c r="BM4" s="30"/>
+      <c r="BN4" s="30"/>
+      <c r="BO4" s="30"/>
+      <c r="BP4" s="30"/>
       <c r="BQ4" s="0"/>
       <c r="BR4" s="0"/>
       <c r="BS4" s="0"/>
@@ -1822,207 +1826,207 @@
       <c r="CN4" s="0"/>
       <c r="CO4" s="0"/>
     </row>
-    <row r="5" s="4" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="5" customFormat="true" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="0"/>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="34" t="s">
+      <c r="G5" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="K5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="N5" s="37" t="s">
+      <c r="N5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="37" t="s">
+      <c r="O5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="P5" s="37" t="s">
+      <c r="P5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="Q5" s="37" t="s">
+      <c r="Q5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="S5" s="37" t="s">
+      <c r="S5" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="U5" s="37" t="s">
+      <c r="U5" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="V5" s="37" t="s">
+      <c r="V5" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="38" t="s">
+      <c r="W5" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="X5" s="39" t="s">
+      <c r="X5" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="Y5" s="40" t="s">
+      <c r="Y5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="Z5" s="40" t="s">
+      <c r="Z5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AA5" s="40" t="s">
+      <c r="AA5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AB5" s="40" t="s">
+      <c r="AB5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AC5" s="40" t="s">
+      <c r="AC5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AD5" s="40" t="s">
+      <c r="AD5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AE5" s="40" t="s">
+      <c r="AE5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AF5" s="40" t="s">
+      <c r="AF5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AG5" s="40" t="s">
+      <c r="AG5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="AH5" s="40" t="s">
+      <c r="AH5" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="AI5" s="40" t="s">
+      <c r="AI5" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="AJ5" s="40" t="s">
+      <c r="AJ5" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="AK5" s="40" t="s">
+      <c r="AK5" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="AL5" s="41" t="s">
+      <c r="AL5" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AM5" s="42" t="s">
+      <c r="AM5" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="AN5" s="43" t="s">
+      <c r="AN5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AO5" s="43" t="s">
+      <c r="AO5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AP5" s="43" t="s">
+      <c r="AP5" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AQ5" s="43" t="s">
+      <c r="AQ5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AR5" s="43" t="s">
+      <c r="AR5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AS5" s="43" t="s">
+      <c r="AS5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AT5" s="43" t="s">
+      <c r="AT5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AU5" s="43" t="s">
+      <c r="AU5" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AV5" s="43" t="s">
+      <c r="AV5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="AW5" s="43" t="s">
+      <c r="AW5" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="AX5" s="43" t="s">
+      <c r="AX5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="AY5" s="43" t="s">
+      <c r="AY5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AZ5" s="43" t="s">
+      <c r="AZ5" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="BA5" s="44" t="s">
+      <c r="BA5" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="BB5" s="45" t="s">
+      <c r="BB5" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="BC5" s="46" t="s">
+      <c r="BC5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="BD5" s="46" t="s">
+      <c r="BD5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="BE5" s="46" t="s">
+      <c r="BE5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="BF5" s="46" t="s">
+      <c r="BF5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="BG5" s="46" t="s">
+      <c r="BG5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="BH5" s="46" t="s">
+      <c r="BH5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="BI5" s="46" t="s">
+      <c r="BI5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="BJ5" s="46" t="s">
+      <c r="BJ5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="BK5" s="46" t="s">
+      <c r="BK5" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="BL5" s="46" t="s">
+      <c r="BL5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="BM5" s="46" t="s">
+      <c r="BM5" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="BN5" s="46" t="s">
+      <c r="BN5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="BO5" s="46" t="s">
+      <c r="BO5" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="BP5" s="47" t="s">
+      <c r="BP5" s="48" t="s">
         <v>32</v>
       </c>
       <c r="BQ5" s="0"/>
@@ -2051,82 +2055,82 @@
       <c r="CN5" s="0"/>
       <c r="CO5" s="0"/>
     </row>
-    <row r="6" s="4" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="5" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0"/>
-      <c r="B6" s="48" t="n">
+      <c r="B6" s="49" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53" t="str">
+      <c r="D6" s="51"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="54" t="str">
         <f aca="false">IF(F6-E6=0,"",F6-E6)</f>
         <v/>
       </c>
-      <c r="H6" s="54"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="58"/>
-      <c r="Y6" s="56"/>
-      <c r="Z6" s="56"/>
-      <c r="AA6" s="56"/>
-      <c r="AB6" s="56"/>
-      <c r="AC6" s="56"/>
-      <c r="AD6" s="56"/>
-      <c r="AE6" s="56"/>
-      <c r="AF6" s="56"/>
-      <c r="AG6" s="56"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="57"/>
-      <c r="AM6" s="58"/>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="56"/>
-      <c r="AW6" s="56"/>
-      <c r="AX6" s="56"/>
-      <c r="AY6" s="56"/>
-      <c r="AZ6" s="56"/>
-      <c r="BA6" s="57"/>
-      <c r="BB6" s="58"/>
-      <c r="BC6" s="56"/>
-      <c r="BD6" s="56"/>
-      <c r="BE6" s="56"/>
-      <c r="BF6" s="56"/>
-      <c r="BG6" s="56"/>
-      <c r="BH6" s="56"/>
-      <c r="BI6" s="56"/>
-      <c r="BJ6" s="56"/>
-      <c r="BK6" s="56"/>
-      <c r="BL6" s="56"/>
-      <c r="BM6" s="56"/>
-      <c r="BN6" s="56"/>
-      <c r="BO6" s="56"/>
-      <c r="BP6" s="59"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="58"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57"/>
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57"/>
+      <c r="AJ6" s="57"/>
+      <c r="AK6" s="57"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="59"/>
+      <c r="AN6" s="57"/>
+      <c r="AO6" s="57"/>
+      <c r="AP6" s="57"/>
+      <c r="AQ6" s="57"/>
+      <c r="AR6" s="57"/>
+      <c r="AS6" s="57"/>
+      <c r="AT6" s="57"/>
+      <c r="AU6" s="57"/>
+      <c r="AV6" s="57"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="57"/>
+      <c r="AY6" s="57"/>
+      <c r="AZ6" s="57"/>
+      <c r="BA6" s="58"/>
+      <c r="BB6" s="59"/>
+      <c r="BC6" s="57"/>
+      <c r="BD6" s="57"/>
+      <c r="BE6" s="57"/>
+      <c r="BF6" s="57"/>
+      <c r="BG6" s="57"/>
+      <c r="BH6" s="57"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="57"/>
+      <c r="BK6" s="57"/>
+      <c r="BL6" s="57"/>
+      <c r="BM6" s="57"/>
+      <c r="BN6" s="57"/>
+      <c r="BO6" s="57"/>
+      <c r="BP6" s="60"/>
       <c r="BQ6" s="0"/>
       <c r="BR6" s="0"/>
       <c r="BS6" s="0"/>
@@ -2154,1997 +2158,1998 @@
       <c r="CO6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="60" t="n">
+      <c r="B7" s="61" t="n">
         <v>1.1</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="63" t="n">
+      <c r="E7" s="64" t="n">
         <v>44774</v>
       </c>
-      <c r="F7" s="64" t="n">
+      <c r="F7" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G7" s="65" t="n">
+      <c r="G7" s="66" t="n">
         <f aca="false">IF(F7-E7=0,"",F7-E7)</f>
         <v>26</v>
       </c>
-      <c r="H7" s="66" t="n">
+      <c r="H7" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="68"/>
-      <c r="O7" s="68"/>
-      <c r="P7" s="68"/>
-      <c r="Q7" s="68"/>
-      <c r="R7" s="68"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="69"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="69"/>
-      <c r="AB7" s="69"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="69"/>
-      <c r="AI7" s="69"/>
-      <c r="AJ7" s="69"/>
-      <c r="AK7" s="69"/>
-      <c r="AL7" s="70"/>
-      <c r="AM7" s="71"/>
-      <c r="AN7" s="69"/>
-      <c r="AO7" s="69"/>
-      <c r="AP7" s="69"/>
-      <c r="AQ7" s="69"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="73"/>
-      <c r="AT7" s="73"/>
-      <c r="AU7" s="73"/>
-      <c r="AV7" s="73"/>
-      <c r="AW7" s="69"/>
-      <c r="AX7" s="69"/>
-      <c r="AY7" s="69"/>
-      <c r="AZ7" s="69"/>
-      <c r="BA7" s="70"/>
-      <c r="BB7" s="71"/>
-      <c r="BC7" s="69"/>
-      <c r="BD7" s="69"/>
-      <c r="BE7" s="69"/>
-      <c r="BF7" s="69"/>
-      <c r="BG7" s="74"/>
-      <c r="BH7" s="74"/>
-      <c r="BI7" s="74"/>
-      <c r="BJ7" s="74"/>
-      <c r="BK7" s="74"/>
-      <c r="BL7" s="69"/>
-      <c r="BM7" s="69"/>
-      <c r="BN7" s="69"/>
-      <c r="BO7" s="69"/>
-      <c r="BP7" s="75"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="71"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="71"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="74"/>
+      <c r="AS7" s="74"/>
+      <c r="AT7" s="74"/>
+      <c r="AU7" s="74"/>
+      <c r="AV7" s="74"/>
+      <c r="AW7" s="70"/>
+      <c r="AX7" s="70"/>
+      <c r="AY7" s="70"/>
+      <c r="AZ7" s="70"/>
+      <c r="BA7" s="71"/>
+      <c r="BB7" s="72"/>
+      <c r="BC7" s="70"/>
+      <c r="BD7" s="70"/>
+      <c r="BE7" s="70"/>
+      <c r="BF7" s="70"/>
+      <c r="BG7" s="75"/>
+      <c r="BH7" s="75"/>
+      <c r="BI7" s="75"/>
+      <c r="BJ7" s="75"/>
+      <c r="BK7" s="75"/>
+      <c r="BL7" s="70"/>
+      <c r="BM7" s="70"/>
+      <c r="BN7" s="70"/>
+      <c r="BO7" s="70"/>
+      <c r="BP7" s="76"/>
     </row>
     <row r="8" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="77" t="s">
+      <c r="D8" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="78" t="n">
+      <c r="E8" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F8" s="64" t="n">
+      <c r="F8" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G8" s="65" t="n">
+      <c r="G8" s="66" t="n">
         <f aca="false">IF(F8-E8=0,"",F8-E8)</f>
         <v>26</v>
       </c>
-      <c r="H8" s="66" t="n">
+      <c r="H8" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="67"/>
-      <c r="O8" s="67"/>
-      <c r="P8" s="67"/>
-      <c r="Q8" s="67"/>
-      <c r="R8" s="67"/>
-      <c r="S8" s="69"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="69"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="71"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="69"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="69"/>
-      <c r="AJ8" s="69"/>
-      <c r="AK8" s="69"/>
-      <c r="AL8" s="70"/>
-      <c r="AM8" s="71"/>
-      <c r="AN8" s="69"/>
-      <c r="AO8" s="69"/>
-      <c r="AP8" s="69"/>
-      <c r="AQ8" s="69"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="69"/>
-      <c r="AX8" s="69"/>
-      <c r="AY8" s="69"/>
-      <c r="AZ8" s="69"/>
-      <c r="BA8" s="70"/>
-      <c r="BB8" s="71"/>
-      <c r="BC8" s="69"/>
-      <c r="BD8" s="69"/>
-      <c r="BE8" s="69"/>
-      <c r="BF8" s="69"/>
-      <c r="BG8" s="74"/>
-      <c r="BH8" s="74"/>
-      <c r="BI8" s="74"/>
-      <c r="BJ8" s="74"/>
-      <c r="BK8" s="74"/>
-      <c r="BL8" s="69"/>
-      <c r="BM8" s="69"/>
-      <c r="BN8" s="69"/>
-      <c r="BO8" s="69"/>
-      <c r="BP8" s="75"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="68"/>
+      <c r="O8" s="68"/>
+      <c r="P8" s="68"/>
+      <c r="Q8" s="68"/>
+      <c r="R8" s="68"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="71"/>
+      <c r="X8" s="72"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="70"/>
+      <c r="AJ8" s="70"/>
+      <c r="AK8" s="70"/>
+      <c r="AL8" s="71"/>
+      <c r="AM8" s="72"/>
+      <c r="AN8" s="70"/>
+      <c r="AO8" s="70"/>
+      <c r="AP8" s="70"/>
+      <c r="AQ8" s="70"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="70"/>
+      <c r="AX8" s="70"/>
+      <c r="AY8" s="70"/>
+      <c r="AZ8" s="70"/>
+      <c r="BA8" s="71"/>
+      <c r="BB8" s="72"/>
+      <c r="BC8" s="70"/>
+      <c r="BD8" s="70"/>
+      <c r="BE8" s="70"/>
+      <c r="BF8" s="70"/>
+      <c r="BG8" s="75"/>
+      <c r="BH8" s="75"/>
+      <c r="BI8" s="75"/>
+      <c r="BJ8" s="75"/>
+      <c r="BK8" s="75"/>
+      <c r="BL8" s="70"/>
+      <c r="BM8" s="70"/>
+      <c r="BN8" s="70"/>
+      <c r="BO8" s="70"/>
+      <c r="BP8" s="76"/>
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="60" t="n">
+      <c r="B9" s="61" t="n">
         <v>1.2</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="78" t="n">
+      <c r="E9" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F9" s="64" t="n">
+      <c r="F9" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G9" s="65" t="n">
+      <c r="G9" s="66" t="n">
         <f aca="false">IF(F9-E9=0,"",F9-E9)</f>
         <v>26</v>
       </c>
-      <c r="H9" s="66" t="n">
+      <c r="H9" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I9" s="79"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="68"/>
-      <c r="R9" s="68"/>
-      <c r="S9" s="67"/>
-      <c r="T9" s="67"/>
-      <c r="U9" s="67"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="67"/>
-      <c r="Y9" s="69"/>
-      <c r="Z9" s="69"/>
-      <c r="AA9" s="69"/>
-      <c r="AB9" s="69"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="69"/>
-      <c r="AI9" s="69"/>
-      <c r="AJ9" s="69"/>
-      <c r="AK9" s="69"/>
-      <c r="AL9" s="70"/>
-      <c r="AM9" s="71"/>
-      <c r="AN9" s="69"/>
-      <c r="AO9" s="69"/>
-      <c r="AP9" s="69"/>
-      <c r="AQ9" s="69"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="73"/>
-      <c r="AT9" s="73"/>
-      <c r="AU9" s="73"/>
-      <c r="AV9" s="73"/>
-      <c r="AW9" s="69"/>
-      <c r="AX9" s="69"/>
-      <c r="AY9" s="69"/>
-      <c r="AZ9" s="69"/>
-      <c r="BA9" s="70"/>
-      <c r="BB9" s="71"/>
-      <c r="BC9" s="69"/>
-      <c r="BD9" s="69"/>
-      <c r="BE9" s="69"/>
-      <c r="BF9" s="69"/>
-      <c r="BG9" s="74"/>
-      <c r="BH9" s="74"/>
-      <c r="BI9" s="74"/>
-      <c r="BJ9" s="74"/>
-      <c r="BK9" s="74"/>
-      <c r="BL9" s="69"/>
-      <c r="BM9" s="69"/>
-      <c r="BN9" s="69"/>
-      <c r="BO9" s="69"/>
-      <c r="BP9" s="75"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="68"/>
+      <c r="T9" s="68"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="68"/>
+      <c r="W9" s="68"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="71"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="70"/>
+      <c r="AQ9" s="70"/>
+      <c r="AR9" s="74"/>
+      <c r="AS9" s="74"/>
+      <c r="AT9" s="74"/>
+      <c r="AU9" s="74"/>
+      <c r="AV9" s="74"/>
+      <c r="AW9" s="70"/>
+      <c r="AX9" s="70"/>
+      <c r="AY9" s="70"/>
+      <c r="AZ9" s="70"/>
+      <c r="BA9" s="71"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="70"/>
+      <c r="BD9" s="70"/>
+      <c r="BE9" s="70"/>
+      <c r="BF9" s="70"/>
+      <c r="BG9" s="75"/>
+      <c r="BH9" s="75"/>
+      <c r="BI9" s="75"/>
+      <c r="BJ9" s="75"/>
+      <c r="BK9" s="75"/>
+      <c r="BL9" s="70"/>
+      <c r="BM9" s="70"/>
+      <c r="BN9" s="70"/>
+      <c r="BO9" s="70"/>
+      <c r="BP9" s="76"/>
     </row>
     <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="60" t="n">
+      <c r="B10" s="61" t="n">
         <v>1.3</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="D10" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="78" t="n">
+      <c r="E10" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F10" s="81"/>
-      <c r="G10" s="65" t="n">
+      <c r="F10" s="82"/>
+      <c r="G10" s="66" t="n">
         <f aca="false">IF(F10-E10=0,"",F10-E10)</f>
         <v>-44774</v>
       </c>
-      <c r="H10" s="66" t="n">
+      <c r="H10" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="79"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
-      <c r="R10" s="68"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="71"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
-      <c r="AA10" s="69"/>
-      <c r="AB10" s="69"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="69"/>
-      <c r="AI10" s="69"/>
-      <c r="AJ10" s="69"/>
-      <c r="AK10" s="69"/>
-      <c r="AL10" s="70"/>
-      <c r="AM10" s="71"/>
-      <c r="AN10" s="69"/>
-      <c r="AO10" s="69"/>
-      <c r="AP10" s="69"/>
-      <c r="AQ10" s="69"/>
-      <c r="AR10" s="73"/>
-      <c r="AS10" s="73"/>
-      <c r="AT10" s="73"/>
-      <c r="AU10" s="73"/>
-      <c r="AV10" s="73"/>
-      <c r="AW10" s="69"/>
-      <c r="AX10" s="69"/>
-      <c r="AY10" s="69"/>
-      <c r="AZ10" s="69"/>
-      <c r="BA10" s="70"/>
-      <c r="BB10" s="71"/>
-      <c r="BC10" s="69"/>
-      <c r="BD10" s="69"/>
-      <c r="BE10" s="69"/>
-      <c r="BF10" s="69"/>
-      <c r="BG10" s="74"/>
-      <c r="BH10" s="74"/>
-      <c r="BI10" s="74"/>
-      <c r="BJ10" s="74"/>
-      <c r="BK10" s="74"/>
-      <c r="BL10" s="69"/>
-      <c r="BM10" s="69"/>
-      <c r="BN10" s="69"/>
-      <c r="BO10" s="69"/>
-      <c r="BP10" s="75"/>
+      <c r="I10" s="80"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="71"/>
+      <c r="X10" s="72"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="70"/>
+      <c r="AA10" s="70"/>
+      <c r="AB10" s="70"/>
+      <c r="AC10" s="73"/>
+      <c r="AD10" s="73"/>
+      <c r="AE10" s="73"/>
+      <c r="AF10" s="73"/>
+      <c r="AG10" s="73"/>
+      <c r="AH10" s="70"/>
+      <c r="AI10" s="70"/>
+      <c r="AJ10" s="70"/>
+      <c r="AK10" s="70"/>
+      <c r="AL10" s="71"/>
+      <c r="AM10" s="72"/>
+      <c r="AN10" s="70"/>
+      <c r="AO10" s="70"/>
+      <c r="AP10" s="70"/>
+      <c r="AQ10" s="70"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="70"/>
+      <c r="AX10" s="70"/>
+      <c r="AY10" s="70"/>
+      <c r="AZ10" s="70"/>
+      <c r="BA10" s="71"/>
+      <c r="BB10" s="72"/>
+      <c r="BC10" s="70"/>
+      <c r="BD10" s="70"/>
+      <c r="BE10" s="70"/>
+      <c r="BF10" s="70"/>
+      <c r="BG10" s="75"/>
+      <c r="BH10" s="75"/>
+      <c r="BI10" s="75"/>
+      <c r="BJ10" s="75"/>
+      <c r="BK10" s="75"/>
+      <c r="BL10" s="70"/>
+      <c r="BM10" s="70"/>
+      <c r="BN10" s="70"/>
+      <c r="BO10" s="70"/>
+      <c r="BP10" s="76"/>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="60" t="n">
+      <c r="B11" s="61" t="n">
         <v>1.4</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="80" t="s">
+      <c r="D11" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="78" t="n">
+      <c r="E11" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F11" s="81"/>
-      <c r="G11" s="65" t="n">
+      <c r="F11" s="82"/>
+      <c r="G11" s="66" t="n">
         <f aca="false">IF(F11-E11=0,"",F11-E11)</f>
         <v>-44774</v>
       </c>
-      <c r="H11" s="66" t="n">
+      <c r="H11" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="79"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="68"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="71"/>
-      <c r="Y11" s="69"/>
-      <c r="Z11" s="69"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="69"/>
-      <c r="AC11" s="72"/>
-      <c r="AD11" s="72"/>
-      <c r="AE11" s="72"/>
-      <c r="AF11" s="72"/>
-      <c r="AG11" s="72"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="69"/>
-      <c r="AJ11" s="69"/>
-      <c r="AK11" s="69"/>
-      <c r="AL11" s="70"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="69"/>
-      <c r="AO11" s="69"/>
-      <c r="AP11" s="69"/>
-      <c r="AQ11" s="69"/>
-      <c r="AR11" s="73"/>
-      <c r="AS11" s="73"/>
-      <c r="AT11" s="73"/>
-      <c r="AU11" s="73"/>
-      <c r="AV11" s="73"/>
-      <c r="AW11" s="69"/>
-      <c r="AX11" s="69"/>
-      <c r="AY11" s="69"/>
-      <c r="AZ11" s="69"/>
-      <c r="BA11" s="70"/>
-      <c r="BB11" s="71"/>
-      <c r="BC11" s="69"/>
-      <c r="BD11" s="69"/>
-      <c r="BE11" s="69"/>
-      <c r="BF11" s="69"/>
-      <c r="BG11" s="74"/>
-      <c r="BH11" s="74"/>
-      <c r="BI11" s="74"/>
-      <c r="BJ11" s="74"/>
-      <c r="BK11" s="74"/>
-      <c r="BL11" s="69"/>
-      <c r="BM11" s="69"/>
-      <c r="BN11" s="69"/>
-      <c r="BO11" s="69"/>
-      <c r="BP11" s="75"/>
+      <c r="I11" s="80"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
+      <c r="X11" s="72"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="70"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="70"/>
+      <c r="AC11" s="73"/>
+      <c r="AD11" s="73"/>
+      <c r="AE11" s="73"/>
+      <c r="AF11" s="73"/>
+      <c r="AG11" s="73"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="70"/>
+      <c r="AJ11" s="70"/>
+      <c r="AK11" s="70"/>
+      <c r="AL11" s="71"/>
+      <c r="AM11" s="72"/>
+      <c r="AN11" s="70"/>
+      <c r="AO11" s="70"/>
+      <c r="AP11" s="70"/>
+      <c r="AQ11" s="70"/>
+      <c r="AR11" s="74"/>
+      <c r="AS11" s="74"/>
+      <c r="AT11" s="74"/>
+      <c r="AU11" s="74"/>
+      <c r="AV11" s="74"/>
+      <c r="AW11" s="70"/>
+      <c r="AX11" s="70"/>
+      <c r="AY11" s="70"/>
+      <c r="AZ11" s="70"/>
+      <c r="BA11" s="71"/>
+      <c r="BB11" s="72"/>
+      <c r="BC11" s="70"/>
+      <c r="BD11" s="70"/>
+      <c r="BE11" s="70"/>
+      <c r="BF11" s="70"/>
+      <c r="BG11" s="75"/>
+      <c r="BH11" s="75"/>
+      <c r="BI11" s="75"/>
+      <c r="BJ11" s="75"/>
+      <c r="BK11" s="75"/>
+      <c r="BL11" s="70"/>
+      <c r="BM11" s="70"/>
+      <c r="BN11" s="70"/>
+      <c r="BO11" s="70"/>
+      <c r="BP11" s="76"/>
     </row>
     <row r="12" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="60" t="n">
+      <c r="B12" s="61" t="n">
         <v>1.5</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="C12" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="80" t="s">
+      <c r="D12" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="78" t="n">
+      <c r="E12" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F12" s="81"/>
-      <c r="G12" s="65" t="n">
+      <c r="F12" s="82"/>
+      <c r="G12" s="66" t="n">
         <f aca="false">IF(F12-E12=0,"",F12-E12)</f>
         <v>-44774</v>
       </c>
-      <c r="H12" s="66" t="n">
+      <c r="H12" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I12" s="79"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="69"/>
-      <c r="L12" s="69"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="69"/>
-      <c r="T12" s="69"/>
-      <c r="U12" s="69"/>
-      <c r="V12" s="69"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="69"/>
-      <c r="Z12" s="69"/>
-      <c r="AA12" s="69"/>
-      <c r="AB12" s="69"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="72"/>
-      <c r="AE12" s="72"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="72"/>
-      <c r="AH12" s="69"/>
-      <c r="AI12" s="69"/>
-      <c r="AJ12" s="69"/>
-      <c r="AK12" s="69"/>
-      <c r="AL12" s="70"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="69"/>
-      <c r="AO12" s="69"/>
-      <c r="AP12" s="69"/>
-      <c r="AQ12" s="69"/>
-      <c r="AR12" s="73"/>
-      <c r="AS12" s="73"/>
-      <c r="AT12" s="73"/>
-      <c r="AU12" s="73"/>
-      <c r="AV12" s="73"/>
-      <c r="AW12" s="69"/>
-      <c r="AX12" s="69"/>
-      <c r="AY12" s="69"/>
-      <c r="AZ12" s="69"/>
-      <c r="BA12" s="70"/>
-      <c r="BB12" s="71"/>
-      <c r="BC12" s="69"/>
-      <c r="BD12" s="69"/>
-      <c r="BE12" s="69"/>
-      <c r="BF12" s="69"/>
-      <c r="BG12" s="74"/>
-      <c r="BH12" s="74"/>
-      <c r="BI12" s="74"/>
-      <c r="BJ12" s="74"/>
-      <c r="BK12" s="74"/>
-      <c r="BL12" s="69"/>
-      <c r="BM12" s="69"/>
-      <c r="BN12" s="69"/>
-      <c r="BO12" s="69"/>
-      <c r="BP12" s="75"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="69"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="71"/>
+      <c r="X12" s="72"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="70"/>
+      <c r="AA12" s="70"/>
+      <c r="AB12" s="70"/>
+      <c r="AC12" s="73"/>
+      <c r="AD12" s="73"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="73"/>
+      <c r="AG12" s="73"/>
+      <c r="AH12" s="70"/>
+      <c r="AI12" s="70"/>
+      <c r="AJ12" s="70"/>
+      <c r="AK12" s="70"/>
+      <c r="AL12" s="71"/>
+      <c r="AM12" s="72"/>
+      <c r="AN12" s="70"/>
+      <c r="AO12" s="70"/>
+      <c r="AP12" s="70"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="70"/>
+      <c r="AX12" s="70"/>
+      <c r="AY12" s="70"/>
+      <c r="AZ12" s="70"/>
+      <c r="BA12" s="71"/>
+      <c r="BB12" s="72"/>
+      <c r="BC12" s="70"/>
+      <c r="BD12" s="70"/>
+      <c r="BE12" s="70"/>
+      <c r="BF12" s="70"/>
+      <c r="BG12" s="75"/>
+      <c r="BH12" s="75"/>
+      <c r="BI12" s="75"/>
+      <c r="BJ12" s="75"/>
+      <c r="BK12" s="75"/>
+      <c r="BL12" s="70"/>
+      <c r="BM12" s="70"/>
+      <c r="BN12" s="70"/>
+      <c r="BO12" s="70"/>
+      <c r="BP12" s="76"/>
     </row>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="60" t="n">
+      <c r="B13" s="61" t="n">
         <v>1.6</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="80" t="s">
+      <c r="D13" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="78" t="n">
+      <c r="E13" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F13" s="81"/>
-      <c r="G13" s="65" t="n">
+      <c r="F13" s="82"/>
+      <c r="G13" s="66" t="n">
         <f aca="false">IF(F13-E13=0,"",F13-E13)</f>
         <v>-44774</v>
       </c>
-      <c r="H13" s="66" t="n">
+      <c r="H13" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="79"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="69"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="71"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="69"/>
-      <c r="AA13" s="69"/>
-      <c r="AB13" s="69"/>
-      <c r="AC13" s="72"/>
-      <c r="AD13" s="72"/>
-      <c r="AE13" s="72"/>
-      <c r="AF13" s="72"/>
-      <c r="AG13" s="72"/>
-      <c r="AH13" s="69"/>
-      <c r="AI13" s="69"/>
-      <c r="AJ13" s="69"/>
-      <c r="AK13" s="69"/>
-      <c r="AL13" s="70"/>
-      <c r="AM13" s="71"/>
-      <c r="AN13" s="69"/>
-      <c r="AO13" s="69"/>
-      <c r="AP13" s="69"/>
-      <c r="AQ13" s="69"/>
-      <c r="AR13" s="73"/>
-      <c r="AS13" s="73"/>
-      <c r="AT13" s="73"/>
-      <c r="AU13" s="73"/>
-      <c r="AV13" s="73"/>
-      <c r="AW13" s="69"/>
-      <c r="AX13" s="69"/>
-      <c r="AY13" s="69"/>
-      <c r="AZ13" s="69"/>
-      <c r="BA13" s="70"/>
-      <c r="BB13" s="71"/>
-      <c r="BC13" s="69"/>
-      <c r="BD13" s="69"/>
-      <c r="BE13" s="69"/>
-      <c r="BF13" s="69"/>
-      <c r="BG13" s="74"/>
-      <c r="BH13" s="74"/>
-      <c r="BI13" s="74"/>
-      <c r="BJ13" s="74"/>
-      <c r="BK13" s="74"/>
-      <c r="BL13" s="69"/>
-      <c r="BM13" s="69"/>
-      <c r="BN13" s="69"/>
-      <c r="BO13" s="69"/>
-      <c r="BP13" s="75"/>
+      <c r="I13" s="80"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="69"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="69"/>
+      <c r="R13" s="69"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="71"/>
+      <c r="X13" s="72"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="70"/>
+      <c r="AC13" s="73"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+      <c r="AG13" s="73"/>
+      <c r="AH13" s="70"/>
+      <c r="AI13" s="70"/>
+      <c r="AJ13" s="70"/>
+      <c r="AK13" s="70"/>
+      <c r="AL13" s="71"/>
+      <c r="AM13" s="72"/>
+      <c r="AN13" s="70"/>
+      <c r="AO13" s="70"/>
+      <c r="AP13" s="70"/>
+      <c r="AQ13" s="70"/>
+      <c r="AR13" s="74"/>
+      <c r="AS13" s="74"/>
+      <c r="AT13" s="74"/>
+      <c r="AU13" s="74"/>
+      <c r="AV13" s="74"/>
+      <c r="AW13" s="70"/>
+      <c r="AX13" s="70"/>
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="70"/>
+      <c r="BA13" s="71"/>
+      <c r="BB13" s="72"/>
+      <c r="BC13" s="70"/>
+      <c r="BD13" s="70"/>
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="75"/>
+      <c r="BH13" s="75"/>
+      <c r="BI13" s="75"/>
+      <c r="BJ13" s="75"/>
+      <c r="BK13" s="75"/>
+      <c r="BL13" s="70"/>
+      <c r="BM13" s="70"/>
+      <c r="BN13" s="70"/>
+      <c r="BO13" s="70"/>
+      <c r="BP13" s="76"/>
     </row>
     <row r="14" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="60" t="n">
+      <c r="B14" s="61" t="n">
         <v>2</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="86" t="str">
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87" t="str">
         <f aca="false">IF(F14-E14=0,"",F14-E14)</f>
         <v/>
       </c>
-      <c r="H14" s="66" t="n">
+      <c r="H14" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I14" s="55"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="56"/>
-      <c r="M14" s="56"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="56"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="56"/>
-      <c r="S14" s="56"/>
-      <c r="T14" s="56"/>
-      <c r="U14" s="56"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="58"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="56"/>
-      <c r="AC14" s="56"/>
-      <c r="AD14" s="56"/>
-      <c r="AE14" s="56"/>
-      <c r="AF14" s="56"/>
-      <c r="AG14" s="56"/>
-      <c r="AH14" s="56"/>
-      <c r="AI14" s="56"/>
-      <c r="AJ14" s="56"/>
-      <c r="AK14" s="56"/>
-      <c r="AL14" s="57"/>
-      <c r="AM14" s="58"/>
-      <c r="AN14" s="56"/>
-      <c r="AO14" s="56"/>
-      <c r="AP14" s="56"/>
-      <c r="AQ14" s="56"/>
-      <c r="AR14" s="56"/>
-      <c r="AS14" s="56"/>
-      <c r="AT14" s="56"/>
-      <c r="AU14" s="56"/>
-      <c r="AV14" s="56"/>
-      <c r="AW14" s="56"/>
-      <c r="AX14" s="56"/>
-      <c r="AY14" s="56"/>
-      <c r="AZ14" s="56"/>
-      <c r="BA14" s="57"/>
-      <c r="BB14" s="58"/>
-      <c r="BC14" s="56"/>
-      <c r="BD14" s="56"/>
-      <c r="BE14" s="56"/>
-      <c r="BF14" s="56"/>
-      <c r="BG14" s="56"/>
-      <c r="BH14" s="56"/>
-      <c r="BI14" s="56"/>
-      <c r="BJ14" s="56"/>
-      <c r="BK14" s="56"/>
-      <c r="BL14" s="56"/>
-      <c r="BM14" s="56"/>
-      <c r="BN14" s="56"/>
-      <c r="BO14" s="56"/>
-      <c r="BP14" s="59"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="58"/>
+      <c r="X14" s="59"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="57"/>
+      <c r="AB14" s="57"/>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="57"/>
+      <c r="AE14" s="57"/>
+      <c r="AF14" s="57"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="57"/>
+      <c r="AI14" s="57"/>
+      <c r="AJ14" s="57"/>
+      <c r="AK14" s="57"/>
+      <c r="AL14" s="58"/>
+      <c r="AM14" s="59"/>
+      <c r="AN14" s="57"/>
+      <c r="AO14" s="57"/>
+      <c r="AP14" s="57"/>
+      <c r="AQ14" s="57"/>
+      <c r="AR14" s="57"/>
+      <c r="AS14" s="57"/>
+      <c r="AT14" s="57"/>
+      <c r="AU14" s="57"/>
+      <c r="AV14" s="57"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="57"/>
+      <c r="AY14" s="57"/>
+      <c r="AZ14" s="57"/>
+      <c r="BA14" s="58"/>
+      <c r="BB14" s="59"/>
+      <c r="BC14" s="57"/>
+      <c r="BD14" s="57"/>
+      <c r="BE14" s="57"/>
+      <c r="BF14" s="57"/>
+      <c r="BG14" s="57"/>
+      <c r="BH14" s="57"/>
+      <c r="BI14" s="57"/>
+      <c r="BJ14" s="57"/>
+      <c r="BK14" s="57"/>
+      <c r="BL14" s="57"/>
+      <c r="BM14" s="57"/>
+      <c r="BN14" s="57"/>
+      <c r="BO14" s="57"/>
+      <c r="BP14" s="60"/>
     </row>
     <row r="15" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="60" t="n">
+      <c r="B15" s="61" t="n">
         <v>2.1</v>
       </c>
-      <c r="C15" s="61" t="s">
+      <c r="C15" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="78" t="n">
+      <c r="E15" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F15" s="81"/>
-      <c r="G15" s="65" t="n">
+      <c r="F15" s="82"/>
+      <c r="G15" s="66" t="n">
         <f aca="false">IF(F15-E15=0,"",F15-E15)</f>
         <v>-44774</v>
       </c>
-      <c r="H15" s="66" t="n">
+      <c r="H15" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="79"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="69"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="69"/>
-      <c r="AA15" s="69"/>
-      <c r="AB15" s="69"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="72"/>
-      <c r="AE15" s="72"/>
-      <c r="AF15" s="72"/>
-      <c r="AG15" s="72"/>
-      <c r="AH15" s="69"/>
-      <c r="AI15" s="69"/>
-      <c r="AJ15" s="69"/>
-      <c r="AK15" s="69"/>
-      <c r="AL15" s="70"/>
-      <c r="AM15" s="71"/>
-      <c r="AN15" s="69"/>
-      <c r="AO15" s="69"/>
-      <c r="AP15" s="69"/>
-      <c r="AQ15" s="69"/>
-      <c r="AR15" s="73"/>
-      <c r="AS15" s="73"/>
-      <c r="AT15" s="73"/>
-      <c r="AU15" s="73"/>
-      <c r="AV15" s="73"/>
-      <c r="AW15" s="69"/>
-      <c r="AX15" s="69"/>
-      <c r="AY15" s="69"/>
-      <c r="AZ15" s="69"/>
-      <c r="BA15" s="70"/>
-      <c r="BB15" s="71"/>
-      <c r="BC15" s="69"/>
-      <c r="BD15" s="69"/>
-      <c r="BE15" s="69"/>
-      <c r="BF15" s="69"/>
-      <c r="BG15" s="74"/>
-      <c r="BH15" s="74"/>
-      <c r="BI15" s="74"/>
-      <c r="BJ15" s="74"/>
-      <c r="BK15" s="74"/>
-      <c r="BL15" s="69"/>
-      <c r="BM15" s="69"/>
-      <c r="BN15" s="69"/>
-      <c r="BO15" s="69"/>
-      <c r="BP15" s="75"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="69"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="69"/>
+      <c r="R15" s="69"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="71"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="88"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
+      <c r="AB15" s="70"/>
+      <c r="AC15" s="73"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+      <c r="AG15" s="73"/>
+      <c r="AH15" s="70"/>
+      <c r="AI15" s="70"/>
+      <c r="AJ15" s="70"/>
+      <c r="AK15" s="70"/>
+      <c r="AL15" s="71"/>
+      <c r="AM15" s="72"/>
+      <c r="AN15" s="70"/>
+      <c r="AO15" s="70"/>
+      <c r="AP15" s="70"/>
+      <c r="AQ15" s="70"/>
+      <c r="AR15" s="74"/>
+      <c r="AS15" s="74"/>
+      <c r="AT15" s="74"/>
+      <c r="AU15" s="74"/>
+      <c r="AV15" s="74"/>
+      <c r="AW15" s="70"/>
+      <c r="AX15" s="70"/>
+      <c r="AY15" s="70"/>
+      <c r="AZ15" s="70"/>
+      <c r="BA15" s="71"/>
+      <c r="BB15" s="72"/>
+      <c r="BC15" s="70"/>
+      <c r="BD15" s="70"/>
+      <c r="BE15" s="70"/>
+      <c r="BF15" s="70"/>
+      <c r="BG15" s="75"/>
+      <c r="BH15" s="75"/>
+      <c r="BI15" s="75"/>
+      <c r="BJ15" s="75"/>
+      <c r="BK15" s="75"/>
+      <c r="BL15" s="70"/>
+      <c r="BM15" s="70"/>
+      <c r="BN15" s="70"/>
+      <c r="BO15" s="70"/>
+      <c r="BP15" s="76"/>
     </row>
     <row r="16" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="60" t="n">
+      <c r="B16" s="61" t="n">
         <v>2.2</v>
       </c>
-      <c r="C16" s="61" t="s">
+      <c r="C16" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="80" t="s">
+      <c r="D16" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="78" t="n">
+      <c r="E16" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F16" s="81"/>
-      <c r="G16" s="65" t="n">
+      <c r="F16" s="82"/>
+      <c r="G16" s="66" t="n">
         <f aca="false">IF(F16-E16=0,"",F16-E16)</f>
         <v>-44774</v>
       </c>
-      <c r="H16" s="66" t="n">
+      <c r="H16" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I16" s="79"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="69"/>
-      <c r="L16" s="69"/>
-      <c r="M16" s="69"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
-      <c r="R16" s="68"/>
-      <c r="S16" s="69"/>
-      <c r="T16" s="69"/>
-      <c r="U16" s="69"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="69"/>
-      <c r="AC16" s="72"/>
-      <c r="AD16" s="72"/>
-      <c r="AE16" s="72"/>
-      <c r="AF16" s="72"/>
-      <c r="AG16" s="72"/>
-      <c r="AH16" s="69"/>
-      <c r="AI16" s="69"/>
-      <c r="AJ16" s="69"/>
-      <c r="AK16" s="69"/>
-      <c r="AL16" s="70"/>
-      <c r="AM16" s="71"/>
-      <c r="AN16" s="69"/>
-      <c r="AO16" s="69"/>
-      <c r="AP16" s="69"/>
-      <c r="AQ16" s="69"/>
-      <c r="AR16" s="73"/>
-      <c r="AS16" s="73"/>
-      <c r="AT16" s="73"/>
-      <c r="AU16" s="73"/>
-      <c r="AV16" s="73"/>
-      <c r="AW16" s="69"/>
-      <c r="AX16" s="69"/>
-      <c r="AY16" s="69"/>
-      <c r="AZ16" s="69"/>
-      <c r="BA16" s="70"/>
-      <c r="BB16" s="71"/>
-      <c r="BC16" s="69"/>
-      <c r="BD16" s="69"/>
-      <c r="BE16" s="69"/>
-      <c r="BF16" s="69"/>
-      <c r="BG16" s="74"/>
-      <c r="BH16" s="74"/>
-      <c r="BI16" s="74"/>
-      <c r="BJ16" s="74"/>
-      <c r="BK16" s="74"/>
-      <c r="BL16" s="69"/>
-      <c r="BM16" s="69"/>
-      <c r="BN16" s="69"/>
-      <c r="BO16" s="69"/>
-      <c r="BP16" s="75"/>
+      <c r="I16" s="80"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="69"/>
+      <c r="P16" s="69"/>
+      <c r="Q16" s="69"/>
+      <c r="R16" s="69"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="72"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="70"/>
+      <c r="AC16" s="73"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+      <c r="AG16" s="73"/>
+      <c r="AH16" s="70"/>
+      <c r="AI16" s="70"/>
+      <c r="AJ16" s="70"/>
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="71"/>
+      <c r="AM16" s="72"/>
+      <c r="AN16" s="70"/>
+      <c r="AO16" s="70"/>
+      <c r="AP16" s="70"/>
+      <c r="AQ16" s="70"/>
+      <c r="AR16" s="74"/>
+      <c r="AS16" s="74"/>
+      <c r="AT16" s="74"/>
+      <c r="AU16" s="74"/>
+      <c r="AV16" s="74"/>
+      <c r="AW16" s="70"/>
+      <c r="AX16" s="70"/>
+      <c r="AY16" s="70"/>
+      <c r="AZ16" s="70"/>
+      <c r="BA16" s="71"/>
+      <c r="BB16" s="72"/>
+      <c r="BC16" s="70"/>
+      <c r="BD16" s="70"/>
+      <c r="BE16" s="70"/>
+      <c r="BF16" s="70"/>
+      <c r="BG16" s="75"/>
+      <c r="BH16" s="75"/>
+      <c r="BI16" s="75"/>
+      <c r="BJ16" s="75"/>
+      <c r="BK16" s="75"/>
+      <c r="BL16" s="70"/>
+      <c r="BM16" s="70"/>
+      <c r="BN16" s="70"/>
+      <c r="BO16" s="70"/>
+      <c r="BP16" s="76"/>
     </row>
     <row r="17" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="60" t="n">
+      <c r="B17" s="61" t="n">
         <v>2.3</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="78" t="n">
+      <c r="E17" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F17" s="81"/>
-      <c r="G17" s="65" t="n">
+      <c r="F17" s="82"/>
+      <c r="G17" s="66" t="n">
         <f aca="false">IF(F17-E17=0,"",F17-E17)</f>
         <v>-44774</v>
       </c>
-      <c r="H17" s="66" t="n">
+      <c r="H17" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I17" s="79"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="69"/>
-      <c r="L17" s="69"/>
-      <c r="M17" s="69"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="69"/>
-      <c r="T17" s="69"/>
-      <c r="U17" s="69"/>
-      <c r="V17" s="69"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="69"/>
-      <c r="Z17" s="69"/>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="69"/>
-      <c r="AI17" s="69"/>
-      <c r="AJ17" s="69"/>
-      <c r="AK17" s="69"/>
-      <c r="AL17" s="70"/>
-      <c r="AM17" s="71"/>
-      <c r="AN17" s="69"/>
-      <c r="AO17" s="69"/>
-      <c r="AP17" s="69"/>
-      <c r="AQ17" s="69"/>
-      <c r="AR17" s="73"/>
-      <c r="AS17" s="73"/>
-      <c r="AT17" s="73"/>
-      <c r="AU17" s="73"/>
-      <c r="AV17" s="73"/>
-      <c r="AW17" s="69"/>
-      <c r="AX17" s="69"/>
-      <c r="AY17" s="69"/>
-      <c r="AZ17" s="69"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="71"/>
-      <c r="BC17" s="69"/>
-      <c r="BD17" s="69"/>
-      <c r="BE17" s="69"/>
-      <c r="BF17" s="69"/>
-      <c r="BG17" s="74"/>
-      <c r="BH17" s="74"/>
-      <c r="BI17" s="74"/>
-      <c r="BJ17" s="74"/>
-      <c r="BK17" s="74"/>
-      <c r="BL17" s="69"/>
-      <c r="BM17" s="69"/>
-      <c r="BN17" s="69"/>
-      <c r="BO17" s="69"/>
-      <c r="BP17" s="75"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="72"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="73"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+      <c r="AG17" s="73"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="72"/>
+      <c r="AN17" s="70"/>
+      <c r="AO17" s="70"/>
+      <c r="AP17" s="70"/>
+      <c r="AQ17" s="70"/>
+      <c r="AR17" s="74"/>
+      <c r="AS17" s="74"/>
+      <c r="AT17" s="74"/>
+      <c r="AU17" s="74"/>
+      <c r="AV17" s="74"/>
+      <c r="AW17" s="70"/>
+      <c r="AX17" s="70"/>
+      <c r="AY17" s="70"/>
+      <c r="AZ17" s="70"/>
+      <c r="BA17" s="71"/>
+      <c r="BB17" s="72"/>
+      <c r="BC17" s="70"/>
+      <c r="BD17" s="70"/>
+      <c r="BE17" s="70"/>
+      <c r="BF17" s="70"/>
+      <c r="BG17" s="75"/>
+      <c r="BH17" s="75"/>
+      <c r="BI17" s="75"/>
+      <c r="BJ17" s="75"/>
+      <c r="BK17" s="75"/>
+      <c r="BL17" s="70"/>
+      <c r="BM17" s="70"/>
+      <c r="BN17" s="70"/>
+      <c r="BO17" s="70"/>
+      <c r="BP17" s="76"/>
     </row>
     <row r="18" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="60" t="n">
+      <c r="B18" s="61" t="n">
         <v>2.4</v>
       </c>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="80" t="s">
+      <c r="D18" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E18" s="78" t="n">
+      <c r="E18" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F18" s="64" t="n">
+      <c r="F18" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G18" s="65" t="n">
+      <c r="G18" s="66" t="n">
         <f aca="false">IF(F18-E18=0,"",F18-E18)</f>
         <v>26</v>
       </c>
-      <c r="H18" s="66" t="n">
+      <c r="H18" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I18" s="79"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="69"/>
-      <c r="L18" s="69"/>
-      <c r="M18" s="69"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="69"/>
-      <c r="T18" s="69"/>
-      <c r="U18" s="69"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="69"/>
-      <c r="Z18" s="69"/>
-      <c r="AA18" s="69"/>
-      <c r="AB18" s="69"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="69"/>
-      <c r="AI18" s="69"/>
-      <c r="AJ18" s="69"/>
-      <c r="AK18" s="69"/>
-      <c r="AL18" s="70"/>
-      <c r="AM18" s="71"/>
-      <c r="AN18" s="69"/>
-      <c r="AO18" s="69"/>
-      <c r="AP18" s="69"/>
-      <c r="AQ18" s="69"/>
-      <c r="AR18" s="73"/>
-      <c r="AS18" s="73"/>
-      <c r="AT18" s="73"/>
-      <c r="AU18" s="73"/>
-      <c r="AV18" s="73"/>
-      <c r="AW18" s="69"/>
-      <c r="AX18" s="69"/>
-      <c r="AY18" s="69"/>
-      <c r="AZ18" s="69"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="71"/>
-      <c r="BC18" s="69"/>
-      <c r="BD18" s="69"/>
-      <c r="BE18" s="69"/>
-      <c r="BF18" s="69"/>
-      <c r="BG18" s="74"/>
-      <c r="BH18" s="74"/>
-      <c r="BI18" s="74"/>
-      <c r="BJ18" s="74"/>
-      <c r="BK18" s="74"/>
-      <c r="BL18" s="69"/>
-      <c r="BM18" s="69"/>
-      <c r="BN18" s="69"/>
-      <c r="BO18" s="69"/>
-      <c r="BP18" s="75"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="72"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="73"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+      <c r="AG18" s="73"/>
+      <c r="AH18" s="70"/>
+      <c r="AI18" s="70"/>
+      <c r="AJ18" s="70"/>
+      <c r="AK18" s="70"/>
+      <c r="AL18" s="71"/>
+      <c r="AM18" s="72"/>
+      <c r="AN18" s="70"/>
+      <c r="AO18" s="70"/>
+      <c r="AP18" s="70"/>
+      <c r="AQ18" s="70"/>
+      <c r="AR18" s="74"/>
+      <c r="AS18" s="74"/>
+      <c r="AT18" s="74"/>
+      <c r="AU18" s="74"/>
+      <c r="AV18" s="74"/>
+      <c r="AW18" s="70"/>
+      <c r="AX18" s="70"/>
+      <c r="AY18" s="70"/>
+      <c r="AZ18" s="70"/>
+      <c r="BA18" s="71"/>
+      <c r="BB18" s="72"/>
+      <c r="BC18" s="70"/>
+      <c r="BD18" s="70"/>
+      <c r="BE18" s="70"/>
+      <c r="BF18" s="70"/>
+      <c r="BG18" s="75"/>
+      <c r="BH18" s="75"/>
+      <c r="BI18" s="75"/>
+      <c r="BJ18" s="75"/>
+      <c r="BK18" s="75"/>
+      <c r="BL18" s="70"/>
+      <c r="BM18" s="70"/>
+      <c r="BN18" s="70"/>
+      <c r="BO18" s="70"/>
+      <c r="BP18" s="76"/>
     </row>
     <row r="19" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="60" t="n">
+      <c r="B19" s="61" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="82" t="s">
+      <c r="C19" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="88"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="86" t="str">
+      <c r="D19" s="89"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="87" t="str">
         <f aca="false">IF(F19-E19=0,"",F19-E19)</f>
         <v/>
       </c>
-      <c r="H19" s="66" t="n">
+      <c r="H19" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="56"/>
-      <c r="L19" s="56"/>
-      <c r="M19" s="56"/>
-      <c r="N19" s="56"/>
-      <c r="O19" s="56"/>
-      <c r="P19" s="56"/>
-      <c r="Q19" s="56"/>
-      <c r="R19" s="56"/>
-      <c r="S19" s="56"/>
-      <c r="T19" s="56"/>
-      <c r="U19" s="56"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="57"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="56"/>
-      <c r="Z19" s="56"/>
-      <c r="AA19" s="56"/>
-      <c r="AB19" s="56"/>
-      <c r="AC19" s="56"/>
-      <c r="AD19" s="56"/>
-      <c r="AE19" s="56"/>
-      <c r="AF19" s="56"/>
-      <c r="AG19" s="56"/>
-      <c r="AH19" s="56"/>
-      <c r="AI19" s="56"/>
-      <c r="AJ19" s="56"/>
-      <c r="AK19" s="56"/>
-      <c r="AL19" s="57"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="56"/>
-      <c r="AO19" s="56"/>
-      <c r="AP19" s="56"/>
-      <c r="AQ19" s="56"/>
-      <c r="AR19" s="56"/>
-      <c r="AS19" s="56"/>
-      <c r="AT19" s="56"/>
-      <c r="AU19" s="56"/>
-      <c r="AV19" s="56"/>
-      <c r="AW19" s="56"/>
-      <c r="AX19" s="56"/>
-      <c r="AY19" s="56"/>
-      <c r="AZ19" s="56"/>
-      <c r="BA19" s="57"/>
-      <c r="BB19" s="58"/>
-      <c r="BC19" s="56"/>
-      <c r="BD19" s="56"/>
-      <c r="BE19" s="56"/>
-      <c r="BF19" s="56"/>
-      <c r="BG19" s="56"/>
-      <c r="BH19" s="56"/>
-      <c r="BI19" s="56"/>
-      <c r="BJ19" s="56"/>
-      <c r="BK19" s="56"/>
-      <c r="BL19" s="56"/>
-      <c r="BM19" s="56"/>
-      <c r="BN19" s="56"/>
-      <c r="BO19" s="56"/>
-      <c r="BP19" s="59"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="58"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="57"/>
+      <c r="AB19" s="57"/>
+      <c r="AC19" s="57"/>
+      <c r="AD19" s="57"/>
+      <c r="AE19" s="57"/>
+      <c r="AF19" s="57"/>
+      <c r="AG19" s="57"/>
+      <c r="AH19" s="57"/>
+      <c r="AI19" s="57"/>
+      <c r="AJ19" s="57"/>
+      <c r="AK19" s="57"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="57"/>
+      <c r="AO19" s="57"/>
+      <c r="AP19" s="57"/>
+      <c r="AQ19" s="57"/>
+      <c r="AR19" s="57"/>
+      <c r="AS19" s="57"/>
+      <c r="AT19" s="57"/>
+      <c r="AU19" s="57"/>
+      <c r="AV19" s="57"/>
+      <c r="AW19" s="57"/>
+      <c r="AX19" s="57"/>
+      <c r="AY19" s="57"/>
+      <c r="AZ19" s="57"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="59"/>
+      <c r="BC19" s="57"/>
+      <c r="BD19" s="57"/>
+      <c r="BE19" s="57"/>
+      <c r="BF19" s="57"/>
+      <c r="BG19" s="57"/>
+      <c r="BH19" s="57"/>
+      <c r="BI19" s="57"/>
+      <c r="BJ19" s="57"/>
+      <c r="BK19" s="57"/>
+      <c r="BL19" s="57"/>
+      <c r="BM19" s="57"/>
+      <c r="BN19" s="57"/>
+      <c r="BO19" s="57"/>
+      <c r="BP19" s="60"/>
     </row>
     <row r="20" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="60" t="n">
+      <c r="B20" s="61" t="n">
         <v>3.1</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="80" t="s">
+      <c r="D20" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E20" s="78" t="n">
+      <c r="E20" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F20" s="64" t="n">
+      <c r="F20" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G20" s="65" t="n">
+      <c r="G20" s="66" t="n">
         <f aca="false">IF(F20-E20=0,"",F20-E20)</f>
         <v>26</v>
       </c>
-      <c r="H20" s="66" t="n">
+      <c r="H20" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I20" s="79"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
-      <c r="R20" s="68"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="69"/>
-      <c r="U20" s="69"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="89"/>
-      <c r="Y20" s="89"/>
-      <c r="Z20" s="89"/>
-      <c r="AA20" s="89"/>
-      <c r="AB20" s="89"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="69"/>
-      <c r="AI20" s="69"/>
-      <c r="AJ20" s="69"/>
-      <c r="AK20" s="69"/>
-      <c r="AL20" s="70"/>
-      <c r="AM20" s="71"/>
-      <c r="AO20" s="69"/>
-      <c r="AP20" s="69"/>
-      <c r="AQ20" s="69"/>
-      <c r="AR20" s="73"/>
-      <c r="AS20" s="73"/>
-      <c r="AT20" s="73"/>
-      <c r="AU20" s="73"/>
-      <c r="AV20" s="73"/>
-      <c r="AW20" s="69"/>
-      <c r="AX20" s="69"/>
-      <c r="AY20" s="69"/>
-      <c r="AZ20" s="69"/>
-      <c r="BA20" s="70"/>
-      <c r="BB20" s="71"/>
-      <c r="BC20" s="69"/>
-      <c r="BD20" s="69"/>
-      <c r="BE20" s="69"/>
-      <c r="BF20" s="69"/>
-      <c r="BG20" s="74"/>
-      <c r="BH20" s="74"/>
-      <c r="BI20" s="74"/>
-      <c r="BJ20" s="74"/>
-      <c r="BK20" s="74"/>
-      <c r="BL20" s="69"/>
-      <c r="BM20" s="69"/>
-      <c r="BN20" s="69"/>
-      <c r="BO20" s="69"/>
-      <c r="BP20" s="75"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
+      <c r="P20" s="69"/>
+      <c r="Q20" s="69"/>
+      <c r="R20" s="69"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="90"/>
+      <c r="Y20" s="90"/>
+      <c r="Z20" s="90"/>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="73"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+      <c r="AG20" s="73"/>
+      <c r="AH20" s="70"/>
+      <c r="AI20" s="70"/>
+      <c r="AJ20" s="70"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="71"/>
+      <c r="AM20" s="72"/>
+      <c r="AO20" s="70"/>
+      <c r="AP20" s="70"/>
+      <c r="AQ20" s="70"/>
+      <c r="AR20" s="74"/>
+      <c r="AS20" s="74"/>
+      <c r="AT20" s="74"/>
+      <c r="AU20" s="74"/>
+      <c r="AV20" s="74"/>
+      <c r="AW20" s="70"/>
+      <c r="AX20" s="70"/>
+      <c r="AY20" s="70"/>
+      <c r="AZ20" s="70"/>
+      <c r="BA20" s="71"/>
+      <c r="BB20" s="72"/>
+      <c r="BC20" s="70"/>
+      <c r="BD20" s="70"/>
+      <c r="BE20" s="70"/>
+      <c r="BF20" s="70"/>
+      <c r="BG20" s="75"/>
+      <c r="BH20" s="75"/>
+      <c r="BI20" s="75"/>
+      <c r="BJ20" s="75"/>
+      <c r="BK20" s="75"/>
+      <c r="BL20" s="70"/>
+      <c r="BM20" s="70"/>
+      <c r="BN20" s="70"/>
+      <c r="BO20" s="70"/>
+      <c r="BP20" s="76"/>
     </row>
     <row r="21" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="60" t="n">
+      <c r="B21" s="61" t="n">
         <v>3.2</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="80" t="s">
+      <c r="D21" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="78" t="n">
+      <c r="E21" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F21" s="64" t="n">
+      <c r="F21" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G21" s="65" t="n">
+      <c r="G21" s="66" t="n">
         <f aca="false">IF(F21-E21=0,"",F21-E21)</f>
         <v>26</v>
       </c>
-      <c r="H21" s="66" t="n">
+      <c r="H21" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="79"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="69"/>
-      <c r="L21" s="69"/>
-      <c r="M21" s="69"/>
-      <c r="N21" s="68"/>
-      <c r="O21" s="68"/>
-      <c r="P21" s="68"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="68"/>
-      <c r="S21" s="69"/>
-      <c r="T21" s="69"/>
-      <c r="U21" s="69"/>
-      <c r="V21" s="69"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="69"/>
-      <c r="Z21" s="69"/>
-      <c r="AA21" s="69"/>
-      <c r="AB21" s="69"/>
-      <c r="AC21" s="89"/>
-      <c r="AD21" s="89"/>
-      <c r="AE21" s="89"/>
-      <c r="AF21" s="89"/>
-      <c r="AG21" s="89"/>
-      <c r="AH21" s="69"/>
-      <c r="AI21" s="69"/>
-      <c r="AJ21" s="69"/>
-      <c r="AK21" s="69"/>
-      <c r="AL21" s="70"/>
-      <c r="AM21" s="71"/>
-      <c r="AN21" s="69"/>
-      <c r="AO21" s="69"/>
-      <c r="AP21" s="69"/>
-      <c r="AQ21" s="69"/>
-      <c r="AR21" s="73"/>
-      <c r="AS21" s="73"/>
-      <c r="AT21" s="73"/>
-      <c r="AU21" s="73"/>
-      <c r="AV21" s="73"/>
-      <c r="AW21" s="69"/>
-      <c r="AX21" s="69"/>
-      <c r="AY21" s="69"/>
-      <c r="AZ21" s="69"/>
-      <c r="BA21" s="70"/>
-      <c r="BB21" s="71"/>
-      <c r="BC21" s="69"/>
-      <c r="BD21" s="69"/>
-      <c r="BE21" s="69"/>
-      <c r="BF21" s="69"/>
-      <c r="BG21" s="74"/>
-      <c r="BH21" s="74"/>
-      <c r="BI21" s="74"/>
-      <c r="BJ21" s="74"/>
-      <c r="BK21" s="74"/>
-      <c r="BL21" s="69"/>
-      <c r="BM21" s="69"/>
-      <c r="BN21" s="69"/>
-      <c r="BO21" s="69"/>
-      <c r="BP21" s="75"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="69"/>
+      <c r="P21" s="69"/>
+      <c r="Q21" s="69"/>
+      <c r="R21" s="69"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="72"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="70"/>
+      <c r="AA21" s="70"/>
+      <c r="AB21" s="70"/>
+      <c r="AC21" s="90"/>
+      <c r="AD21" s="90"/>
+      <c r="AE21" s="90"/>
+      <c r="AF21" s="90"/>
+      <c r="AG21" s="90"/>
+      <c r="AH21" s="70"/>
+      <c r="AI21" s="70"/>
+      <c r="AJ21" s="70"/>
+      <c r="AK21" s="70"/>
+      <c r="AL21" s="71"/>
+      <c r="AM21" s="72"/>
+      <c r="AN21" s="70"/>
+      <c r="AO21" s="70"/>
+      <c r="AP21" s="70"/>
+      <c r="AQ21" s="70"/>
+      <c r="AR21" s="74"/>
+      <c r="AS21" s="74"/>
+      <c r="AT21" s="74"/>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="70"/>
+      <c r="AX21" s="70"/>
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="70"/>
+      <c r="BA21" s="71"/>
+      <c r="BB21" s="72"/>
+      <c r="BC21" s="70"/>
+      <c r="BD21" s="70"/>
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="75"/>
+      <c r="BH21" s="75"/>
+      <c r="BI21" s="75"/>
+      <c r="BJ21" s="75"/>
+      <c r="BK21" s="75"/>
+      <c r="BL21" s="70"/>
+      <c r="BM21" s="70"/>
+      <c r="BN21" s="70"/>
+      <c r="BO21" s="70"/>
+      <c r="BP21" s="76"/>
     </row>
     <row r="22" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="76" t="s">
+      <c r="C22" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="77" t="s">
+      <c r="D22" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E22" s="78" t="n">
+      <c r="E22" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F22" s="64" t="n">
+      <c r="F22" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G22" s="65" t="n">
+      <c r="G22" s="66" t="n">
         <f aca="false">IF(F22-E22=0,"",F22-E22)</f>
         <v>26</v>
       </c>
-      <c r="H22" s="66" t="n">
+      <c r="H22" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="79"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="69"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
-      <c r="R22" s="68"/>
-      <c r="S22" s="69"/>
-      <c r="T22" s="69"/>
-      <c r="U22" s="69"/>
-      <c r="V22" s="69"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="71"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="69"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="89"/>
-      <c r="AI22" s="89"/>
-      <c r="AJ22" s="89"/>
-      <c r="AK22" s="89"/>
-      <c r="AL22" s="89"/>
-      <c r="AM22" s="71"/>
-      <c r="AN22" s="69"/>
-      <c r="AO22" s="69"/>
-      <c r="AP22" s="69"/>
-      <c r="AQ22" s="69"/>
-      <c r="AR22" s="73"/>
-      <c r="AS22" s="73"/>
-      <c r="AT22" s="73"/>
-      <c r="AU22" s="73"/>
-      <c r="AV22" s="73"/>
-      <c r="AW22" s="69"/>
-      <c r="AX22" s="69"/>
-      <c r="AY22" s="69"/>
-      <c r="AZ22" s="69"/>
-      <c r="BA22" s="70"/>
-      <c r="BB22" s="71"/>
-      <c r="BC22" s="69"/>
-      <c r="BD22" s="69"/>
-      <c r="BE22" s="69"/>
-      <c r="BF22" s="69"/>
-      <c r="BG22" s="74"/>
-      <c r="BH22" s="74"/>
-      <c r="BI22" s="74"/>
-      <c r="BJ22" s="74"/>
-      <c r="BK22" s="74"/>
-      <c r="BL22" s="69"/>
-      <c r="BM22" s="69"/>
-      <c r="BN22" s="69"/>
-      <c r="BO22" s="69"/>
-      <c r="BP22" s="75"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
+      <c r="P22" s="69"/>
+      <c r="Q22" s="69"/>
+      <c r="R22" s="69"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="71"/>
+      <c r="X22" s="72"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="70"/>
+      <c r="AC22" s="73"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+      <c r="AG22" s="73"/>
+      <c r="AH22" s="90"/>
+      <c r="AI22" s="90"/>
+      <c r="AJ22" s="90"/>
+      <c r="AK22" s="90"/>
+      <c r="AL22" s="90"/>
+      <c r="AM22" s="72"/>
+      <c r="AN22" s="70"/>
+      <c r="AO22" s="70"/>
+      <c r="AP22" s="70"/>
+      <c r="AQ22" s="70"/>
+      <c r="AR22" s="74"/>
+      <c r="AS22" s="74"/>
+      <c r="AT22" s="74"/>
+      <c r="AU22" s="74"/>
+      <c r="AV22" s="74"/>
+      <c r="AW22" s="70"/>
+      <c r="AX22" s="70"/>
+      <c r="AY22" s="70"/>
+      <c r="AZ22" s="70"/>
+      <c r="BA22" s="71"/>
+      <c r="BB22" s="72"/>
+      <c r="BC22" s="70"/>
+      <c r="BD22" s="70"/>
+      <c r="BE22" s="70"/>
+      <c r="BF22" s="70"/>
+      <c r="BG22" s="75"/>
+      <c r="BH22" s="75"/>
+      <c r="BI22" s="75"/>
+      <c r="BJ22" s="75"/>
+      <c r="BK22" s="75"/>
+      <c r="BL22" s="70"/>
+      <c r="BM22" s="70"/>
+      <c r="BN22" s="70"/>
+      <c r="BO22" s="70"/>
+      <c r="BP22" s="76"/>
     </row>
     <row r="23" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="76" t="s">
+      <c r="C23" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="D23" s="77" t="s">
+      <c r="D23" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="78" t="n">
+      <c r="E23" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F23" s="64" t="n">
+      <c r="F23" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G23" s="65" t="n">
+      <c r="G23" s="66" t="n">
         <f aca="false">IF(F23-E23=0,"",F23-E23)</f>
         <v>26</v>
       </c>
-      <c r="H23" s="66" t="n">
+      <c r="H23" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I23" s="79"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="69"/>
-      <c r="L23" s="69"/>
-      <c r="M23" s="69"/>
-      <c r="N23" s="68"/>
-      <c r="O23" s="68"/>
-      <c r="P23" s="68"/>
-      <c r="Q23" s="68"/>
-      <c r="R23" s="68"/>
-      <c r="S23" s="69"/>
-      <c r="T23" s="69"/>
-      <c r="U23" s="69" t="s">
+      <c r="I23" s="80"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="69"/>
+      <c r="P23" s="69"/>
+      <c r="Q23" s="69"/>
+      <c r="R23" s="69"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="V23" s="69"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="71"/>
-      <c r="Y23" s="69"/>
-      <c r="Z23" s="69"/>
-      <c r="AA23" s="69"/>
-      <c r="AB23" s="69"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="69"/>
-      <c r="AI23" s="69"/>
-      <c r="AJ23" s="69"/>
-      <c r="AK23" s="69"/>
-      <c r="AL23" s="70"/>
-      <c r="AM23" s="90"/>
-      <c r="AN23" s="90"/>
-      <c r="AO23" s="90"/>
-      <c r="AP23" s="90"/>
-      <c r="AQ23" s="90"/>
-      <c r="AR23" s="73"/>
-      <c r="AS23" s="73"/>
-      <c r="AT23" s="73"/>
-      <c r="AU23" s="73"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="69"/>
-      <c r="AX23" s="69"/>
-      <c r="AY23" s="69"/>
-      <c r="AZ23" s="69"/>
-      <c r="BA23" s="70"/>
-      <c r="BB23" s="71"/>
-      <c r="BC23" s="69"/>
-      <c r="BD23" s="69"/>
-      <c r="BE23" s="69"/>
-      <c r="BF23" s="69"/>
-      <c r="BG23" s="74"/>
-      <c r="BH23" s="74"/>
-      <c r="BI23" s="74"/>
-      <c r="BJ23" s="74"/>
-      <c r="BK23" s="74"/>
-      <c r="BL23" s="69"/>
-      <c r="BM23" s="69"/>
-      <c r="BN23" s="69"/>
-      <c r="BO23" s="69"/>
-      <c r="BP23" s="75"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="71"/>
+      <c r="X23" s="72"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="70"/>
+      <c r="AB23" s="70"/>
+      <c r="AC23" s="73"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+      <c r="AG23" s="73"/>
+      <c r="AH23" s="70"/>
+      <c r="AI23" s="70"/>
+      <c r="AJ23" s="70"/>
+      <c r="AK23" s="70"/>
+      <c r="AL23" s="71"/>
+      <c r="AM23" s="91"/>
+      <c r="AN23" s="91"/>
+      <c r="AO23" s="91"/>
+      <c r="AP23" s="91"/>
+      <c r="AQ23" s="91"/>
+      <c r="AR23" s="74"/>
+      <c r="AS23" s="74"/>
+      <c r="AT23" s="74"/>
+      <c r="AU23" s="74"/>
+      <c r="AV23" s="74"/>
+      <c r="AW23" s="70"/>
+      <c r="AX23" s="70"/>
+      <c r="AY23" s="70"/>
+      <c r="AZ23" s="70"/>
+      <c r="BA23" s="71"/>
+      <c r="BB23" s="72"/>
+      <c r="BC23" s="70"/>
+      <c r="BD23" s="70"/>
+      <c r="BE23" s="70"/>
+      <c r="BF23" s="70"/>
+      <c r="BG23" s="75"/>
+      <c r="BH23" s="75"/>
+      <c r="BI23" s="75"/>
+      <c r="BJ23" s="75"/>
+      <c r="BK23" s="75"/>
+      <c r="BL23" s="70"/>
+      <c r="BM23" s="70"/>
+      <c r="BN23" s="70"/>
+      <c r="BO23" s="70"/>
+      <c r="BP23" s="76"/>
     </row>
     <row r="24" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="60" t="n">
+      <c r="B24" s="61" t="n">
         <v>3.3</v>
       </c>
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="80" t="s">
+      <c r="D24" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="78" t="n">
+      <c r="E24" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F24" s="64" t="n">
+      <c r="F24" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G24" s="65" t="n">
+      <c r="G24" s="66" t="n">
         <f aca="false">IF(F24-E24=0,"",F24-E24)</f>
         <v>26</v>
       </c>
-      <c r="H24" s="66" t="n">
+      <c r="H24" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I24" s="79"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="69"/>
-      <c r="L24" s="69"/>
-      <c r="M24" s="69"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
-      <c r="R24" s="68"/>
-      <c r="S24" s="69"/>
-      <c r="T24" s="69"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="71"/>
-      <c r="Y24" s="69"/>
-      <c r="Z24" s="69"/>
-      <c r="AA24" s="69"/>
-      <c r="AB24" s="69"/>
-      <c r="AC24" s="72"/>
-      <c r="AD24" s="72"/>
-      <c r="AE24" s="72"/>
-      <c r="AF24" s="72"/>
-      <c r="AG24" s="72"/>
-      <c r="AH24" s="69"/>
-      <c r="AI24" s="69"/>
-      <c r="AJ24" s="69"/>
-      <c r="AK24" s="69"/>
-      <c r="AL24" s="70"/>
-      <c r="AM24" s="71"/>
-      <c r="AN24" s="69"/>
-      <c r="AO24" s="69"/>
-      <c r="AP24" s="69"/>
-      <c r="AQ24" s="69"/>
-      <c r="AR24" s="90"/>
-      <c r="AS24" s="90"/>
-      <c r="AT24" s="90"/>
-      <c r="AU24" s="90"/>
-      <c r="AV24" s="90"/>
-      <c r="AW24" s="69"/>
-      <c r="AX24" s="69"/>
-      <c r="AY24" s="69"/>
-      <c r="AZ24" s="69"/>
-      <c r="BA24" s="70"/>
-      <c r="BB24" s="71"/>
-      <c r="BC24" s="69"/>
-      <c r="BD24" s="69"/>
-      <c r="BE24" s="69"/>
-      <c r="BF24" s="69"/>
-      <c r="BG24" s="74"/>
-      <c r="BH24" s="74"/>
-      <c r="BI24" s="74"/>
-      <c r="BJ24" s="74"/>
-      <c r="BK24" s="74"/>
-      <c r="BL24" s="69"/>
-      <c r="BM24" s="69"/>
-      <c r="BN24" s="69"/>
-      <c r="BO24" s="69"/>
-      <c r="BP24" s="75"/>
+      <c r="I24" s="80"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="69"/>
+      <c r="Q24" s="69"/>
+      <c r="R24" s="69"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="70"/>
+      <c r="AA24" s="70"/>
+      <c r="AB24" s="70"/>
+      <c r="AC24" s="73"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+      <c r="AG24" s="73"/>
+      <c r="AH24" s="70"/>
+      <c r="AI24" s="70"/>
+      <c r="AJ24" s="70"/>
+      <c r="AK24" s="70"/>
+      <c r="AL24" s="71"/>
+      <c r="AM24" s="72"/>
+      <c r="AN24" s="70"/>
+      <c r="AO24" s="70"/>
+      <c r="AP24" s="70"/>
+      <c r="AQ24" s="70"/>
+      <c r="AR24" s="91"/>
+      <c r="AS24" s="91"/>
+      <c r="AT24" s="91"/>
+      <c r="AU24" s="91"/>
+      <c r="AV24" s="91"/>
+      <c r="AW24" s="70"/>
+      <c r="AX24" s="70"/>
+      <c r="AY24" s="70"/>
+      <c r="AZ24" s="70"/>
+      <c r="BA24" s="71"/>
+      <c r="BB24" s="72"/>
+      <c r="BC24" s="70"/>
+      <c r="BD24" s="70"/>
+      <c r="BE24" s="70"/>
+      <c r="BF24" s="70"/>
+      <c r="BG24" s="75"/>
+      <c r="BH24" s="75"/>
+      <c r="BI24" s="75"/>
+      <c r="BJ24" s="75"/>
+      <c r="BK24" s="75"/>
+      <c r="BL24" s="70"/>
+      <c r="BM24" s="70"/>
+      <c r="BN24" s="70"/>
+      <c r="BO24" s="70"/>
+      <c r="BP24" s="76"/>
     </row>
     <row r="25" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C25" s="76" t="s">
+      <c r="C25" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="D25" s="77" t="s">
+      <c r="D25" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="78" t="n">
+      <c r="E25" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F25" s="64" t="n">
+      <c r="F25" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G25" s="65" t="n">
+      <c r="G25" s="66" t="n">
         <f aca="false">IF(F25-E25=0,"",F25-E25)</f>
         <v>26</v>
       </c>
-      <c r="H25" s="66" t="n">
+      <c r="H25" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I25" s="79"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="69"/>
-      <c r="L25" s="69"/>
-      <c r="M25" s="69"/>
-      <c r="N25" s="68"/>
-      <c r="O25" s="68"/>
-      <c r="P25" s="68"/>
-      <c r="Q25" s="68"/>
-      <c r="R25" s="68"/>
-      <c r="S25" s="69"/>
-      <c r="T25" s="69"/>
-      <c r="U25" s="69"/>
-      <c r="V25" s="69"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="71"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="69"/>
-      <c r="AC25" s="72"/>
-      <c r="AD25" s="72"/>
-      <c r="AE25" s="72"/>
-      <c r="AF25" s="72"/>
-      <c r="AG25" s="72"/>
-      <c r="AH25" s="69"/>
-      <c r="AI25" s="69"/>
-      <c r="AJ25" s="69"/>
-      <c r="AK25" s="69"/>
-      <c r="AL25" s="70"/>
-      <c r="AM25" s="71"/>
-      <c r="AN25" s="69"/>
-      <c r="AO25" s="69"/>
-      <c r="AP25" s="69"/>
-      <c r="AQ25" s="69"/>
-      <c r="AR25" s="73"/>
-      <c r="AS25" s="73"/>
-      <c r="AT25" s="73"/>
-      <c r="AU25" s="73"/>
-      <c r="AV25" s="73"/>
-      <c r="AW25" s="90"/>
-      <c r="AX25" s="90"/>
-      <c r="AY25" s="90"/>
-      <c r="AZ25" s="90"/>
-      <c r="BA25" s="90"/>
-      <c r="BB25" s="71"/>
-      <c r="BC25" s="69"/>
-      <c r="BD25" s="69"/>
-      <c r="BE25" s="69"/>
-      <c r="BF25" s="69"/>
-      <c r="BG25" s="74"/>
-      <c r="BH25" s="74"/>
-      <c r="BI25" s="74"/>
-      <c r="BJ25" s="74"/>
-      <c r="BK25" s="74"/>
-      <c r="BL25" s="69"/>
-      <c r="BM25" s="69"/>
-      <c r="BN25" s="69"/>
-      <c r="BO25" s="69"/>
-      <c r="BP25" s="75"/>
+      <c r="I25" s="80"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="69"/>
+      <c r="P25" s="69"/>
+      <c r="Q25" s="69"/>
+      <c r="R25" s="69"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="71"/>
+      <c r="X25" s="72"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="70"/>
+      <c r="AC25" s="73"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+      <c r="AG25" s="73"/>
+      <c r="AH25" s="70"/>
+      <c r="AI25" s="70"/>
+      <c r="AJ25" s="70"/>
+      <c r="AK25" s="70"/>
+      <c r="AL25" s="71"/>
+      <c r="AM25" s="72"/>
+      <c r="AN25" s="70"/>
+      <c r="AO25" s="70"/>
+      <c r="AP25" s="70"/>
+      <c r="AQ25" s="70"/>
+      <c r="AR25" s="74"/>
+      <c r="AS25" s="74"/>
+      <c r="AT25" s="74"/>
+      <c r="AU25" s="74"/>
+      <c r="AV25" s="74"/>
+      <c r="AW25" s="91"/>
+      <c r="AX25" s="91"/>
+      <c r="AY25" s="91"/>
+      <c r="AZ25" s="91"/>
+      <c r="BA25" s="91"/>
+      <c r="BB25" s="72"/>
+      <c r="BC25" s="70"/>
+      <c r="BD25" s="70"/>
+      <c r="BE25" s="70"/>
+      <c r="BF25" s="70"/>
+      <c r="BG25" s="75"/>
+      <c r="BH25" s="75"/>
+      <c r="BI25" s="75"/>
+      <c r="BJ25" s="75"/>
+      <c r="BK25" s="75"/>
+      <c r="BL25" s="70"/>
+      <c r="BM25" s="70"/>
+      <c r="BN25" s="70"/>
+      <c r="BO25" s="70"/>
+      <c r="BP25" s="76"/>
     </row>
     <row r="26" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="60" t="n">
+      <c r="B26" s="61" t="n">
         <v>4</v>
       </c>
-      <c r="C26" s="82" t="s">
+      <c r="C26" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="D26" s="83"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="86" t="str">
+      <c r="D26" s="84"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="87" t="str">
         <f aca="false">IF(F26-E26=0,"",F26-E26)</f>
         <v/>
       </c>
-      <c r="H26" s="66" t="n">
+      <c r="H26" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="56"/>
-      <c r="K26" s="56"/>
-      <c r="L26" s="56"/>
-      <c r="M26" s="56"/>
-      <c r="N26" s="56"/>
-      <c r="O26" s="56"/>
-      <c r="P26" s="56"/>
-      <c r="Q26" s="56"/>
-      <c r="R26" s="56"/>
-      <c r="S26" s="56"/>
-      <c r="T26" s="56"/>
-      <c r="U26" s="56"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="57"/>
-      <c r="X26" s="58"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="56"/>
-      <c r="AC26" s="56"/>
-      <c r="AD26" s="56"/>
-      <c r="AE26" s="56"/>
-      <c r="AF26" s="56"/>
-      <c r="AG26" s="56"/>
-      <c r="AH26" s="56"/>
-      <c r="AI26" s="56"/>
-      <c r="AJ26" s="56"/>
-      <c r="AK26" s="56"/>
-      <c r="AL26" s="57"/>
-      <c r="AM26" s="58"/>
-      <c r="AN26" s="56"/>
-      <c r="AO26" s="56"/>
-      <c r="AP26" s="56"/>
-      <c r="AQ26" s="56"/>
-      <c r="AR26" s="56"/>
-      <c r="AS26" s="56"/>
-      <c r="AT26" s="56"/>
-      <c r="AU26" s="56"/>
-      <c r="AV26" s="56"/>
-      <c r="AW26" s="56"/>
-      <c r="AX26" s="56"/>
-      <c r="AY26" s="56"/>
-      <c r="AZ26" s="56"/>
-      <c r="BA26" s="57"/>
-      <c r="BB26" s="58"/>
-      <c r="BC26" s="56"/>
-      <c r="BD26" s="56"/>
-      <c r="BE26" s="56"/>
-      <c r="BF26" s="56"/>
-      <c r="BG26" s="56"/>
-      <c r="BH26" s="56"/>
-      <c r="BI26" s="56"/>
-      <c r="BJ26" s="56"/>
-      <c r="BK26" s="56"/>
-      <c r="BL26" s="56"/>
-      <c r="BM26" s="56"/>
-      <c r="BN26" s="56"/>
-      <c r="BO26" s="56"/>
-      <c r="BP26" s="59"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="57"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="57"/>
+      <c r="M26" s="57"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="58"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="57"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="57"/>
+      <c r="AB26" s="57"/>
+      <c r="AC26" s="57"/>
+      <c r="AD26" s="57"/>
+      <c r="AE26" s="57"/>
+      <c r="AF26" s="57"/>
+      <c r="AG26" s="57"/>
+      <c r="AH26" s="57"/>
+      <c r="AI26" s="57"/>
+      <c r="AJ26" s="57"/>
+      <c r="AK26" s="57"/>
+      <c r="AL26" s="58"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="57"/>
+      <c r="AO26" s="57"/>
+      <c r="AP26" s="57"/>
+      <c r="AQ26" s="57"/>
+      <c r="AR26" s="57"/>
+      <c r="AS26" s="57"/>
+      <c r="AT26" s="57"/>
+      <c r="AU26" s="57"/>
+      <c r="AV26" s="57"/>
+      <c r="AW26" s="57"/>
+      <c r="AX26" s="57"/>
+      <c r="AY26" s="57"/>
+      <c r="AZ26" s="57"/>
+      <c r="BA26" s="58"/>
+      <c r="BB26" s="59"/>
+      <c r="BC26" s="57"/>
+      <c r="BD26" s="57"/>
+      <c r="BE26" s="57"/>
+      <c r="BF26" s="57"/>
+      <c r="BG26" s="57"/>
+      <c r="BH26" s="57"/>
+      <c r="BI26" s="57"/>
+      <c r="BJ26" s="57"/>
+      <c r="BK26" s="57"/>
+      <c r="BL26" s="57"/>
+      <c r="BM26" s="57"/>
+      <c r="BN26" s="57"/>
+      <c r="BO26" s="57"/>
+      <c r="BP26" s="60"/>
     </row>
     <row r="27" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="60" t="n">
+      <c r="B27" s="61" t="n">
         <v>4.1</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="78" t="n">
+      <c r="E27" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F27" s="64" t="n">
+      <c r="F27" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G27" s="65" t="n">
+      <c r="G27" s="66" t="n">
         <f aca="false">IF(F27-E27=0,"",F27-E27)</f>
         <v>26</v>
       </c>
-      <c r="H27" s="66" t="n">
+      <c r="H27" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I27" s="79"/>
-      <c r="J27" s="69"/>
-      <c r="K27" s="69"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="68"/>
-      <c r="O27" s="68"/>
-      <c r="P27" s="68"/>
-      <c r="Q27" s="68"/>
-      <c r="R27" s="68"/>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
-      <c r="U27" s="69"/>
-      <c r="V27" s="69"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="71"/>
-      <c r="Y27" s="69"/>
-      <c r="Z27" s="69"/>
-      <c r="AA27" s="69"/>
-      <c r="AB27" s="69"/>
-      <c r="AC27" s="72"/>
-      <c r="AD27" s="72"/>
-      <c r="AE27" s="72"/>
-      <c r="AF27" s="72"/>
-      <c r="AG27" s="72"/>
-      <c r="AH27" s="69"/>
-      <c r="AI27" s="69"/>
-      <c r="AJ27" s="69"/>
-      <c r="AK27" s="69"/>
-      <c r="AL27" s="70"/>
-      <c r="AM27" s="71"/>
-      <c r="AN27" s="69"/>
-      <c r="AO27" s="69"/>
-      <c r="AP27" s="69"/>
-      <c r="AQ27" s="69"/>
-      <c r="AR27" s="73"/>
-      <c r="AS27" s="73"/>
-      <c r="AT27" s="73"/>
-      <c r="AU27" s="73"/>
-      <c r="AV27" s="73"/>
-      <c r="AW27" s="69"/>
-      <c r="AX27" s="69"/>
-      <c r="AY27" s="69"/>
-      <c r="AZ27" s="69"/>
-      <c r="BA27" s="70"/>
-      <c r="BB27" s="90"/>
-      <c r="BC27" s="90"/>
-      <c r="BD27" s="90"/>
-      <c r="BE27" s="90"/>
-      <c r="BF27" s="90"/>
-      <c r="BG27" s="74"/>
-      <c r="BH27" s="74"/>
-      <c r="BI27" s="74"/>
-      <c r="BJ27" s="74"/>
-      <c r="BK27" s="74"/>
-      <c r="BL27" s="69"/>
-      <c r="BM27" s="69"/>
-      <c r="BN27" s="69"/>
-      <c r="BO27" s="69"/>
-      <c r="BP27" s="75"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
+      <c r="P27" s="69"/>
+      <c r="Q27" s="69"/>
+      <c r="R27" s="69"/>
+      <c r="S27" s="70"/>
+      <c r="T27" s="70"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="71"/>
+      <c r="X27" s="72"/>
+      <c r="Y27" s="70"/>
+      <c r="Z27" s="70"/>
+      <c r="AA27" s="70"/>
+      <c r="AB27" s="70"/>
+      <c r="AC27" s="73"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+      <c r="AG27" s="73"/>
+      <c r="AH27" s="70"/>
+      <c r="AI27" s="70"/>
+      <c r="AJ27" s="70"/>
+      <c r="AK27" s="70"/>
+      <c r="AL27" s="71"/>
+      <c r="AM27" s="72"/>
+      <c r="AN27" s="70"/>
+      <c r="AO27" s="70"/>
+      <c r="AP27" s="70"/>
+      <c r="AQ27" s="70"/>
+      <c r="AR27" s="74"/>
+      <c r="AS27" s="74"/>
+      <c r="AT27" s="74"/>
+      <c r="AU27" s="74"/>
+      <c r="AV27" s="74"/>
+      <c r="AW27" s="70"/>
+      <c r="AX27" s="70"/>
+      <c r="AY27" s="70"/>
+      <c r="AZ27" s="70"/>
+      <c r="BA27" s="71"/>
+      <c r="BB27" s="91"/>
+      <c r="BC27" s="91"/>
+      <c r="BD27" s="91"/>
+      <c r="BE27" s="91"/>
+      <c r="BF27" s="91"/>
+      <c r="BG27" s="75"/>
+      <c r="BH27" s="75"/>
+      <c r="BI27" s="75"/>
+      <c r="BJ27" s="75"/>
+      <c r="BK27" s="75"/>
+      <c r="BL27" s="70"/>
+      <c r="BM27" s="70"/>
+      <c r="BN27" s="70"/>
+      <c r="BO27" s="70"/>
+      <c r="BP27" s="76"/>
     </row>
     <row r="28" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="60" t="n">
+      <c r="B28" s="61" t="n">
         <v>4.2</v>
       </c>
-      <c r="C28" s="61" t="s">
+      <c r="C28" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D28" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="78" t="n">
+      <c r="E28" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F28" s="64" t="n">
+      <c r="F28" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G28" s="65" t="n">
+      <c r="G28" s="66" t="n">
         <f aca="false">IF(F28-E28=0,"",F28-E28)</f>
         <v>26</v>
       </c>
-      <c r="H28" s="66" t="n">
+      <c r="H28" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I28" s="79"/>
-      <c r="J28" s="69"/>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
-      <c r="R28" s="68"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
-      <c r="U28" s="69"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="70"/>
-      <c r="X28" s="71"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="69"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="69"/>
-      <c r="AI28" s="69"/>
-      <c r="AJ28" s="69"/>
-      <c r="AK28" s="69"/>
-      <c r="AL28" s="70"/>
-      <c r="AM28" s="71"/>
-      <c r="AN28" s="69"/>
-      <c r="AO28" s="69"/>
-      <c r="AP28" s="69"/>
-      <c r="AQ28" s="69"/>
-      <c r="AR28" s="73"/>
-      <c r="AS28" s="73"/>
-      <c r="AT28" s="73"/>
-      <c r="AU28" s="73"/>
-      <c r="AV28" s="73"/>
-      <c r="AW28" s="69"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="69"/>
-      <c r="BA28" s="70"/>
-      <c r="BB28" s="71"/>
-      <c r="BC28" s="69"/>
-      <c r="BD28" s="69"/>
-      <c r="BE28" s="69"/>
-      <c r="BF28" s="69"/>
-      <c r="BG28" s="90"/>
-      <c r="BH28" s="90"/>
-      <c r="BI28" s="90"/>
-      <c r="BJ28" s="90"/>
-      <c r="BK28" s="90"/>
-      <c r="BM28" s="69"/>
-      <c r="BN28" s="69"/>
-      <c r="BO28" s="69"/>
-      <c r="BP28" s="75"/>
+      <c r="I28" s="80"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
+      <c r="P28" s="69"/>
+      <c r="Q28" s="69"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="70"/>
+      <c r="T28" s="70"/>
+      <c r="U28" s="70"/>
+      <c r="V28" s="70"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="72"/>
+      <c r="Y28" s="70"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="70"/>
+      <c r="AB28" s="70"/>
+      <c r="AC28" s="73"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+      <c r="AG28" s="73"/>
+      <c r="AH28" s="70"/>
+      <c r="AI28" s="70"/>
+      <c r="AJ28" s="70"/>
+      <c r="AK28" s="70"/>
+      <c r="AL28" s="71"/>
+      <c r="AM28" s="72"/>
+      <c r="AN28" s="70"/>
+      <c r="AO28" s="70"/>
+      <c r="AP28" s="70"/>
+      <c r="AQ28" s="70"/>
+      <c r="AR28" s="74"/>
+      <c r="AS28" s="74"/>
+      <c r="AT28" s="74"/>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="70"/>
+      <c r="AX28" s="70"/>
+      <c r="AY28" s="70"/>
+      <c r="AZ28" s="70"/>
+      <c r="BA28" s="71"/>
+      <c r="BB28" s="72"/>
+      <c r="BC28" s="70"/>
+      <c r="BD28" s="70"/>
+      <c r="BE28" s="70"/>
+      <c r="BF28" s="70"/>
+      <c r="BG28" s="91"/>
+      <c r="BH28" s="91"/>
+      <c r="BI28" s="91"/>
+      <c r="BJ28" s="91"/>
+      <c r="BK28" s="91"/>
+      <c r="BM28" s="70"/>
+      <c r="BN28" s="70"/>
+      <c r="BO28" s="70"/>
+      <c r="BP28" s="76"/>
     </row>
     <row r="29" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="60" t="n">
+      <c r="B29" s="61" t="n">
         <v>4.3</v>
       </c>
-      <c r="C29" s="91" t="s">
+      <c r="C29" s="92" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="80" t="s">
+      <c r="D29" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="78" t="n">
+      <c r="E29" s="79" t="n">
         <v>44774</v>
       </c>
-      <c r="F29" s="64" t="n">
+      <c r="F29" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G29" s="65" t="n">
+      <c r="G29" s="66" t="n">
         <f aca="false">IF(F29-E29=0,"",F29-E29)</f>
         <v>26</v>
       </c>
-      <c r="H29" s="66" t="n">
+      <c r="H29" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I29" s="79"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="68"/>
-      <c r="O29" s="68"/>
-      <c r="P29" s="68"/>
-      <c r="Q29" s="68"/>
-      <c r="R29" s="68"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="71"/>
-      <c r="Y29" s="69"/>
-      <c r="Z29" s="69"/>
-      <c r="AA29" s="69"/>
-      <c r="AB29" s="69"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="69"/>
-      <c r="AI29" s="69"/>
-      <c r="AJ29" s="69"/>
-      <c r="AK29" s="69"/>
-      <c r="AL29" s="70"/>
-      <c r="AM29" s="71"/>
-      <c r="AN29" s="69"/>
-      <c r="AO29" s="69"/>
-      <c r="AP29" s="69"/>
-      <c r="AQ29" s="69"/>
-      <c r="AR29" s="73"/>
-      <c r="AS29" s="73"/>
-      <c r="AT29" s="73"/>
-      <c r="AU29" s="73"/>
-      <c r="AV29" s="73"/>
-      <c r="AW29" s="69"/>
-      <c r="AX29" s="69"/>
-      <c r="AY29" s="69"/>
-      <c r="AZ29" s="69"/>
-      <c r="BA29" s="70"/>
-      <c r="BB29" s="71"/>
-      <c r="BC29" s="69"/>
-      <c r="BD29" s="69"/>
-      <c r="BE29" s="69"/>
-      <c r="BF29" s="69"/>
-      <c r="BG29" s="74"/>
-      <c r="BH29" s="74"/>
-      <c r="BI29" s="74"/>
-      <c r="BJ29" s="74"/>
-      <c r="BK29" s="74"/>
-      <c r="BL29" s="90"/>
-      <c r="BM29" s="90"/>
-      <c r="BN29" s="69"/>
-      <c r="BO29" s="69"/>
-      <c r="BP29" s="75"/>
+      <c r="I29" s="80"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="69"/>
+      <c r="Q29" s="69"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="70"/>
+      <c r="T29" s="70"/>
+      <c r="U29" s="70"/>
+      <c r="V29" s="70"/>
+      <c r="W29" s="71"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="70"/>
+      <c r="Z29" s="70"/>
+      <c r="AA29" s="70"/>
+      <c r="AB29" s="70"/>
+      <c r="AC29" s="73"/>
+      <c r="AD29" s="73"/>
+      <c r="AE29" s="73"/>
+      <c r="AF29" s="73"/>
+      <c r="AG29" s="73"/>
+      <c r="AH29" s="70"/>
+      <c r="AI29" s="70"/>
+      <c r="AJ29" s="70"/>
+      <c r="AK29" s="70"/>
+      <c r="AL29" s="71"/>
+      <c r="AM29" s="72"/>
+      <c r="AN29" s="70"/>
+      <c r="AO29" s="70"/>
+      <c r="AP29" s="70"/>
+      <c r="AQ29" s="70"/>
+      <c r="AR29" s="74"/>
+      <c r="AS29" s="74"/>
+      <c r="AT29" s="74"/>
+      <c r="AU29" s="74"/>
+      <c r="AV29" s="74"/>
+      <c r="AW29" s="70"/>
+      <c r="AX29" s="70"/>
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="70"/>
+      <c r="BA29" s="71"/>
+      <c r="BB29" s="72"/>
+      <c r="BC29" s="70"/>
+      <c r="BD29" s="70"/>
+      <c r="BE29" s="70"/>
+      <c r="BF29" s="70"/>
+      <c r="BG29" s="75"/>
+      <c r="BH29" s="75"/>
+      <c r="BI29" s="75"/>
+      <c r="BJ29" s="75"/>
+      <c r="BK29" s="75"/>
+      <c r="BL29" s="91"/>
+      <c r="BM29" s="91"/>
+      <c r="BN29" s="70"/>
+      <c r="BO29" s="70"/>
+      <c r="BP29" s="76"/>
     </row>
     <row r="30" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="93" t="s">
         <v>63</v>
       </c>
       <c r="C30" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="94" t="n">
+      <c r="E30" s="95" t="n">
         <v>44774</v>
       </c>
-      <c r="F30" s="64" t="n">
+      <c r="F30" s="65" t="n">
         <v>44800</v>
       </c>
-      <c r="G30" s="95" t="n">
+      <c r="G30" s="96" t="n">
         <f aca="false">IF(F30-E30=0,"",F30-E30)</f>
         <v>26</v>
       </c>
-      <c r="H30" s="66" t="n">
+      <c r="H30" s="67" t="n">
         <v>1</v>
       </c>
-      <c r="I30" s="96"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="97"/>
-      <c r="L30" s="97"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="98"/>
-      <c r="P30" s="98"/>
-      <c r="Q30" s="98"/>
-      <c r="R30" s="98"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="97"/>
-      <c r="W30" s="99"/>
-      <c r="X30" s="100"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="97"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="97"/>
-      <c r="AC30" s="101"/>
-      <c r="AD30" s="101"/>
-      <c r="AE30" s="101"/>
-      <c r="AF30" s="101"/>
-      <c r="AG30" s="101"/>
-      <c r="AH30" s="97"/>
-      <c r="AI30" s="97"/>
-      <c r="AJ30" s="97"/>
-      <c r="AK30" s="97"/>
-      <c r="AL30" s="99"/>
-      <c r="AM30" s="100"/>
-      <c r="AN30" s="97"/>
-      <c r="AO30" s="97"/>
-      <c r="AP30" s="97"/>
-      <c r="AQ30" s="97"/>
-      <c r="AR30" s="102"/>
-      <c r="AS30" s="102"/>
-      <c r="AT30" s="102"/>
-      <c r="AU30" s="102"/>
-      <c r="AV30" s="102"/>
-      <c r="AW30" s="97"/>
-      <c r="AX30" s="97"/>
-      <c r="AY30" s="97"/>
-      <c r="AZ30" s="97"/>
-      <c r="BA30" s="99"/>
-      <c r="BB30" s="100"/>
-      <c r="BC30" s="97"/>
-      <c r="BD30" s="97"/>
-      <c r="BE30" s="97"/>
-      <c r="BF30" s="97"/>
-      <c r="BG30" s="103"/>
-      <c r="BH30" s="103"/>
-      <c r="BI30" s="103"/>
-      <c r="BJ30" s="103"/>
-      <c r="BK30" s="103"/>
-      <c r="BL30" s="97"/>
-      <c r="BM30" s="97"/>
-      <c r="BN30" s="90"/>
-      <c r="BO30" s="90"/>
-      <c r="BP30" s="90"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="98"/>
+      <c r="K30" s="98"/>
+      <c r="L30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
+      <c r="Q30" s="99"/>
+      <c r="R30" s="99"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="101"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="102"/>
+      <c r="AD30" s="102"/>
+      <c r="AE30" s="102"/>
+      <c r="AF30" s="102"/>
+      <c r="AG30" s="102"/>
+      <c r="AH30" s="98"/>
+      <c r="AI30" s="98"/>
+      <c r="AJ30" s="98"/>
+      <c r="AK30" s="98"/>
+      <c r="AL30" s="100"/>
+      <c r="AM30" s="101"/>
+      <c r="AN30" s="98"/>
+      <c r="AO30" s="98"/>
+      <c r="AP30" s="98"/>
+      <c r="AQ30" s="98"/>
+      <c r="AR30" s="103"/>
+      <c r="AS30" s="103"/>
+      <c r="AT30" s="103"/>
+      <c r="AU30" s="103"/>
+      <c r="AV30" s="103"/>
+      <c r="AW30" s="98"/>
+      <c r="AX30" s="98"/>
+      <c r="AY30" s="98"/>
+      <c r="AZ30" s="98"/>
+      <c r="BA30" s="100"/>
+      <c r="BB30" s="101"/>
+      <c r="BC30" s="98"/>
+      <c r="BD30" s="98"/>
+      <c r="BE30" s="98"/>
+      <c r="BF30" s="98"/>
+      <c r="BG30" s="104"/>
+      <c r="BH30" s="104"/>
+      <c r="BI30" s="104"/>
+      <c r="BJ30" s="104"/>
+      <c r="BK30" s="104"/>
+      <c r="BL30" s="98"/>
+      <c r="BM30" s="98"/>
+      <c r="BN30" s="91"/>
+      <c r="BO30" s="91"/>
+      <c r="BP30" s="91"/>
     </row>
     <row r="31" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="32" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="33" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="104"/>
+      <c r="C37" s="105"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
+    <mergeCell ref="B1:C1"/>
     <mergeCell ref="I3:W3"/>
     <mergeCell ref="X3:AL3"/>
     <mergeCell ref="AM3:BA3"/>
@@ -4171,7 +4176,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D562D022-BDDE-48F6-BFC5-1EE6D0DEC3A1}</x14:id>
+          <x14:id>{992AC576-44BD-4F4D-A5E7-A1DC9B55EC53}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4185,7 +4190,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{314B3773-D747-429F-B561-BAAF9B9CE11B}</x14:id>
+          <x14:id>{ABC73A7E-DFFF-40F8-8715-982A325051E9}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4199,7 +4204,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7821A69D-6520-4027-8DA7-CE522419FB71}</x14:id>
+          <x14:id>{40D0A3D6-1B58-46D0-9431-436BCE9292EC}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4213,7 +4218,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{58724A3C-67CA-493F-9946-72401F68C34F}</x14:id>
+          <x14:id>{2EFBFF38-39E0-4AF2-B715-8657886B7A89}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4227,7 +4232,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DA75834A-4010-4223-B829-EC2D39D04AA0}</x14:id>
+          <x14:id>{FEBE2B12-C13B-4F2A-9455-E0A61C59F84B}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4241,7 +4246,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97526898-B0DE-495C-86C0-C620DCF0E3EB}</x14:id>
+          <x14:id>{D792EF8E-EA43-4D86-BC17-D03120E45D26}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4255,7 +4260,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{2AC05B18-DD8D-4974-8785-2176A59519D0}</x14:id>
+          <x14:id>{16A3ED50-D1E6-4AB6-8248-A58030937411}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4269,7 +4274,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{51366290-CB6D-403F-96B1-D3206A5D3066}</x14:id>
+          <x14:id>{B9FF5B68-6EDA-43A5-AED0-B742155068AD}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4283,7 +4288,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{DAB9F110-1530-4BA0-8437-FD714F24FA90}</x14:id>
+          <x14:id>{7F81C1E0-1065-4C56-AB85-5EF0437A64B7}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4297,7 +4302,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7115FDB0-3DFA-4417-AD66-387CC4EF7FA7}</x14:id>
+          <x14:id>{8432FE54-24B3-4D44-9B46-2F8CB5B6CB60}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4311,7 +4316,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{29BC6CDA-9088-45DA-BC90-177790239FCB}</x14:id>
+          <x14:id>{A55FB777-72B5-4E97-87B2-7E20B0847BF3}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4325,7 +4330,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E1C0C8A7-1EFF-452F-8EB0-20A0F5AEE0CC}</x14:id>
+          <x14:id>{98F5AE75-315F-4FB9-9410-71326CDA69DE}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4339,7 +4344,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4AB6F291-F4E8-4E48-B279-59424496C3D2}</x14:id>
+          <x14:id>{A1EB7F4F-EC43-47BA-B568-36FF34BBFC2A}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4353,7 +4358,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E8EBD5ED-6258-467D-9985-7233C5AC8F40}</x14:id>
+          <x14:id>{A3308B41-73A4-4BB0-80B0-8B80F42C80BF}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4367,7 +4372,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{28CB9210-FD9D-4A00-B748-69F2E12B10C9}</x14:id>
+          <x14:id>{A0384F71-E750-4C7A-9E32-97A859CF6FF6}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4381,7 +4386,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{36E8C07D-18F7-4E3C-9B4D-D7333AC1DBEB}</x14:id>
+          <x14:id>{DC3480B7-228A-46F6-B66D-8C2556B5979E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4395,7 +4400,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{137D20A8-918D-4C92-8029-26BAAE1E58FC}</x14:id>
+          <x14:id>{52434C7E-B078-4F60-A2E7-AF1EB7CE3A1E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4409,7 +4414,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{41BD4028-EC86-4D8E-81A4-E787CE6BD9B1}</x14:id>
+          <x14:id>{D3E0AD18-9E86-42AF-87FD-83A7FFBB319C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4423,7 +4428,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90F330AA-EBB1-437A-B8E5-2CCE14C298FF}</x14:id>
+          <x14:id>{395337D1-AF82-42EF-80F4-3D7F3E469C86}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4437,7 +4442,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{413CD8B7-A74F-4838-8E7E-7BAC4D9BF0AD}</x14:id>
+          <x14:id>{5BA43C21-C057-49EA-8DF6-CEA29C1D1524}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4451,7 +4456,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{ED55D2A0-41B6-4C79-A23F-C17269B65485}</x14:id>
+          <x14:id>{535C29DB-20B0-4041-B0F6-621920B84D7E}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4465,7 +4470,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{90FC18C6-B5B2-4240-9F36-BD3C88A04614}</x14:id>
+          <x14:id>{6B6B16BE-0065-433F-92B3-64B474607800}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4479,7 +4484,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F4B064B5-9967-43C5-A025-12B850FF9689}</x14:id>
+          <x14:id>{A358F299-6B16-4F95-9982-CDC086625A71}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4493,7 +4498,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{97F1EAE8-A878-4B4C-B4F4-62DE57327E3E}</x14:id>
+          <x14:id>{F614D1A0-8B24-4D33-8D49-D1418BA1A6CB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -4509,7 +4514,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D562D022-BDDE-48F6-BFC5-1EE6D0DEC3A1}">
+          <x14:cfRule type="dataBar" id="{992AC576-44BD-4F4D-A5E7-A1DC9B55EC53}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4524,7 +4529,7 @@
           <xm:sqref>H6:H7</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{314B3773-D747-429F-B561-BAAF9B9CE11B}">
+          <x14:cfRule type="dataBar" id="{ABC73A7E-DFFF-40F8-8715-982A325051E9}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4539,7 +4544,7 @@
           <xm:sqref>H8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7821A69D-6520-4027-8DA7-CE522419FB71}">
+          <x14:cfRule type="dataBar" id="{40D0A3D6-1B58-46D0-9431-436BCE9292EC}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4554,7 +4559,7 @@
           <xm:sqref>H9</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{58724A3C-67CA-493F-9946-72401F68C34F}">
+          <x14:cfRule type="dataBar" id="{2EFBFF38-39E0-4AF2-B715-8657886B7A89}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4569,7 +4574,7 @@
           <xm:sqref>H10</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DA75834A-4010-4223-B829-EC2D39D04AA0}">
+          <x14:cfRule type="dataBar" id="{FEBE2B12-C13B-4F2A-9455-E0A61C59F84B}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4584,7 +4589,7 @@
           <xm:sqref>H11</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{97526898-B0DE-495C-86C0-C620DCF0E3EB}">
+          <x14:cfRule type="dataBar" id="{D792EF8E-EA43-4D86-BC17-D03120E45D26}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4599,7 +4604,7 @@
           <xm:sqref>H12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{2AC05B18-DD8D-4974-8785-2176A59519D0}">
+          <x14:cfRule type="dataBar" id="{16A3ED50-D1E6-4AB6-8248-A58030937411}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4614,7 +4619,7 @@
           <xm:sqref>H13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{51366290-CB6D-403F-96B1-D3206A5D3066}">
+          <x14:cfRule type="dataBar" id="{B9FF5B68-6EDA-43A5-AED0-B742155068AD}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4629,7 +4634,7 @@
           <xm:sqref>H14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{DAB9F110-1530-4BA0-8437-FD714F24FA90}">
+          <x14:cfRule type="dataBar" id="{7F81C1E0-1065-4C56-AB85-5EF0437A64B7}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4644,7 +4649,7 @@
           <xm:sqref>H15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7115FDB0-3DFA-4417-AD66-387CC4EF7FA7}">
+          <x14:cfRule type="dataBar" id="{8432FE54-24B3-4D44-9B46-2F8CB5B6CB60}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4659,7 +4664,7 @@
           <xm:sqref>H16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{29BC6CDA-9088-45DA-BC90-177790239FCB}">
+          <x14:cfRule type="dataBar" id="{A55FB777-72B5-4E97-87B2-7E20B0847BF3}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4674,7 +4679,7 @@
           <xm:sqref>H17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E1C0C8A7-1EFF-452F-8EB0-20A0F5AEE0CC}">
+          <x14:cfRule type="dataBar" id="{98F5AE75-315F-4FB9-9410-71326CDA69DE}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4689,7 +4694,7 @@
           <xm:sqref>H18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4AB6F291-F4E8-4E48-B279-59424496C3D2}">
+          <x14:cfRule type="dataBar" id="{A1EB7F4F-EC43-47BA-B568-36FF34BBFC2A}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4704,7 +4709,7 @@
           <xm:sqref>H19</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E8EBD5ED-6258-467D-9985-7233C5AC8F40}">
+          <x14:cfRule type="dataBar" id="{A3308B41-73A4-4BB0-80B0-8B80F42C80BF}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4719,7 +4724,7 @@
           <xm:sqref>H20</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{28CB9210-FD9D-4A00-B748-69F2E12B10C9}">
+          <x14:cfRule type="dataBar" id="{A0384F71-E750-4C7A-9E32-97A859CF6FF6}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4734,7 +4739,7 @@
           <xm:sqref>H21</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{36E8C07D-18F7-4E3C-9B4D-D7333AC1DBEB}">
+          <x14:cfRule type="dataBar" id="{DC3480B7-228A-46F6-B66D-8C2556B5979E}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4749,7 +4754,7 @@
           <xm:sqref>H22</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{137D20A8-918D-4C92-8029-26BAAE1E58FC}">
+          <x14:cfRule type="dataBar" id="{52434C7E-B078-4F60-A2E7-AF1EB7CE3A1E}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4764,7 +4769,7 @@
           <xm:sqref>H23</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{41BD4028-EC86-4D8E-81A4-E787CE6BD9B1}">
+          <x14:cfRule type="dataBar" id="{D3E0AD18-9E86-42AF-87FD-83A7FFBB319C}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4779,7 +4784,7 @@
           <xm:sqref>H24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90F330AA-EBB1-437A-B8E5-2CCE14C298FF}">
+          <x14:cfRule type="dataBar" id="{395337D1-AF82-42EF-80F4-3D7F3E469C86}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4794,7 +4799,7 @@
           <xm:sqref>H25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{413CD8B7-A74F-4838-8E7E-7BAC4D9BF0AD}">
+          <x14:cfRule type="dataBar" id="{5BA43C21-C057-49EA-8DF6-CEA29C1D1524}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4809,7 +4814,7 @@
           <xm:sqref>H26</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{ED55D2A0-41B6-4C79-A23F-C17269B65485}">
+          <x14:cfRule type="dataBar" id="{535C29DB-20B0-4041-B0F6-621920B84D7E}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4824,7 +4829,7 @@
           <xm:sqref>H27</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{90FC18C6-B5B2-4240-9F36-BD3C88A04614}">
+          <x14:cfRule type="dataBar" id="{6B6B16BE-0065-433F-92B3-64B474607800}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4839,7 +4844,7 @@
           <xm:sqref>H28</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F4B064B5-9967-43C5-A025-12B850FF9689}">
+          <x14:cfRule type="dataBar" id="{A358F299-6B16-4F95-9982-CDC086625A71}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -4854,7 +4859,7 @@
           <xm:sqref>H29</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{97F1EAE8-A878-4B4C-B4F4-62DE57327E3E}">
+          <x14:cfRule type="dataBar" id="{F614D1A0-8B24-4D33-8D49-D1418BA1A6CB}">
             <x14:dataBar minLength="10" maxLength="90" axisPosition="automatic" gradient="true">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
